--- a/Data_frame/balancos_definitivos/IVTT3.xlsx
+++ b/Data_frame/balancos_definitivos/IVTT3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AX80"/>
+  <dimension ref="A1:AF80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,197 +491,107 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>31/12/2009</t>
+          <t>31/03/2010</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>31/03/2010</t>
+          <t>30/06/2010</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>30/06/2010</t>
+          <t>30/09/2010</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>30/09/2010</t>
+          <t>31/12/2010</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>31/12/2010</t>
+          <t>31/03/2011</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>31/03/2011</t>
+          <t>30/06/2011</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>30/06/2011</t>
+          <t>30/09/2011</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>30/09/2011</t>
+          <t>31/12/2011</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>31/12/2011</t>
+          <t>31/03/2012</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>31/03/2012</t>
+          <t>30/06/2012</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>30/06/2012</t>
+          <t>30/09/2012</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>30/09/2012</t>
+          <t>31/12/2012</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>31/12/2012</t>
+          <t>31/03/2013</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>31/03/2013</t>
+          <t>30/06/2013</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>30/06/2013</t>
+          <t>30/09/2013</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>30/09/2013</t>
+          <t>31/12/2013</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>31/12/2013</t>
+          <t>31/03/2014</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>31/03/2014</t>
+          <t>30/06/2014</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>30/06/2014</t>
+          <t>30/09/2014</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>30/09/2014</t>
+          <t>31/12/2014</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>31/12/2014</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
           <t>31/03/2015</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>30/06/2015</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>30/09/2015</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>31/12/2015</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>31/03/2016</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>30/06/2016</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>30/09/2016</t>
-        </is>
-      </c>
-      <c r="AN1" s="1" t="inlineStr">
-        <is>
-          <t>31/12/2016</t>
-        </is>
-      </c>
-      <c r="AO1" s="1" t="inlineStr">
-        <is>
-          <t>31/03/2017</t>
-        </is>
-      </c>
-      <c r="AP1" s="1" t="inlineStr">
-        <is>
-          <t>30/06/2017</t>
-        </is>
-      </c>
-      <c r="AQ1" s="1" t="inlineStr">
-        <is>
-          <t>30/09/2017</t>
-        </is>
-      </c>
-      <c r="AR1" s="1" t="inlineStr">
-        <is>
-          <t>31/12/2017</t>
-        </is>
-      </c>
-      <c r="AS1" s="1" t="inlineStr">
-        <is>
-          <t>31/03/2018</t>
-        </is>
-      </c>
-      <c r="AT1" s="1" t="inlineStr">
-        <is>
-          <t>30/06/2018</t>
-        </is>
-      </c>
-      <c r="AU1" s="1" t="inlineStr">
-        <is>
-          <t>30/09/2018</t>
-        </is>
-      </c>
-      <c r="AV1" s="1" t="inlineStr">
-        <is>
-          <t>31/12/2018</t>
-        </is>
-      </c>
-      <c r="AW1" s="1" t="inlineStr">
-        <is>
-          <t>31/03/2019</t>
-        </is>
-      </c>
-      <c r="AX1" s="1" t="inlineStr">
-        <is>
-          <t>30/06/2019</t>
         </is>
       </c>
     </row>
@@ -722,121 +632,67 @@
         <v>737841.9840000001</v>
       </c>
       <c r="L2" t="n">
-        <v>1293736.96</v>
+        <v>782046.976</v>
       </c>
       <c r="M2" t="n">
-        <v>782046.976</v>
+        <v>790131.008</v>
       </c>
       <c r="N2" t="n">
-        <v>790131.008</v>
+        <v>789371.008</v>
       </c>
       <c r="O2" t="n">
-        <v>789371.008</v>
+        <v>801340.032</v>
       </c>
       <c r="P2" t="n">
-        <v>801340.032</v>
+        <v>953201.9840000001</v>
       </c>
       <c r="Q2" t="n">
-        <v>953201.9840000001</v>
+        <v>948547.968</v>
       </c>
       <c r="R2" t="n">
-        <v>948547.968</v>
+        <v>1018939.008</v>
       </c>
       <c r="S2" t="n">
-        <v>1018939.008</v>
+        <v>1016102.016</v>
       </c>
       <c r="T2" t="n">
-        <v>1016102.016</v>
+        <v>1028398.016</v>
       </c>
       <c r="U2" t="n">
-        <v>1028398.016</v>
+        <v>1076662.016</v>
       </c>
       <c r="V2" t="n">
-        <v>1076662.016</v>
+        <v>1091000.96</v>
       </c>
       <c r="W2" t="n">
-        <v>1091000.96</v>
+        <v>1132948.992</v>
       </c>
       <c r="X2" t="n">
-        <v>1132948.992</v>
+        <v>1109527.04</v>
       </c>
       <c r="Y2" t="n">
-        <v>1109527.04</v>
+        <v>1441790.976</v>
       </c>
       <c r="Z2" t="n">
-        <v>1441790.976</v>
+        <v>1441053.056</v>
       </c>
       <c r="AA2" t="n">
-        <v>1441053.056</v>
+        <v>1423737.984</v>
       </c>
       <c r="AB2" t="n">
-        <v>1423737.984</v>
+        <v>1436525.056</v>
       </c>
       <c r="AC2" t="n">
-        <v>1436525.056</v>
+        <v>1493453.952</v>
       </c>
       <c r="AD2" t="n">
-        <v>1493453.952</v>
+        <v>1407751.04</v>
       </c>
       <c r="AE2" t="n">
-        <v>1407751.04</v>
+        <v>1410285.952</v>
       </c>
       <c r="AF2" t="n">
-        <v>1410285.952</v>
-      </c>
-      <c r="AG2" t="n">
         <v>1387865.984</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>239984</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>216255.008</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>219068.992</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>162420.992</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>133736</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>138615.008</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>136495.008</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>109197</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>102357</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>91027</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>73683</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>67253</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>67956</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>65398</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>56439</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>52198</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>48178</v>
       </c>
     </row>
     <row r="3">
@@ -876,121 +732,67 @@
         <v>289792.992</v>
       </c>
       <c r="L3" t="n">
-        <v>1001161.024</v>
+        <v>225920</v>
       </c>
       <c r="M3" t="n">
-        <v>225920</v>
+        <v>222140</v>
       </c>
       <c r="N3" t="n">
-        <v>222140</v>
+        <v>197323.008</v>
       </c>
       <c r="O3" t="n">
-        <v>197323.008</v>
+        <v>203468.992</v>
       </c>
       <c r="P3" t="n">
-        <v>203468.992</v>
+        <v>220330</v>
       </c>
       <c r="Q3" t="n">
-        <v>220330</v>
+        <v>221920.992</v>
       </c>
       <c r="R3" t="n">
-        <v>221920.992</v>
+        <v>81003</v>
       </c>
       <c r="S3" t="n">
-        <v>81003</v>
+        <v>82176</v>
       </c>
       <c r="T3" t="n">
-        <v>82176</v>
+        <v>77237</v>
       </c>
       <c r="U3" t="n">
-        <v>77237</v>
+        <v>80836</v>
       </c>
       <c r="V3" t="n">
-        <v>80836</v>
+        <v>95337</v>
       </c>
       <c r="W3" t="n">
-        <v>95337</v>
+        <v>95672</v>
       </c>
       <c r="X3" t="n">
-        <v>95672</v>
+        <v>75866</v>
       </c>
       <c r="Y3" t="n">
-        <v>75866</v>
+        <v>385552</v>
       </c>
       <c r="Z3" t="n">
-        <v>385552</v>
+        <v>365348.992</v>
       </c>
       <c r="AA3" t="n">
-        <v>365348.992</v>
+        <v>331128</v>
       </c>
       <c r="AB3" t="n">
-        <v>331128</v>
+        <v>160963.008</v>
       </c>
       <c r="AC3" t="n">
-        <v>160963.008</v>
+        <v>318304.992</v>
       </c>
       <c r="AD3" t="n">
-        <v>318304.992</v>
+        <v>205463.008</v>
       </c>
       <c r="AE3" t="n">
-        <v>205463.008</v>
+        <v>187779.008</v>
       </c>
       <c r="AF3" t="n">
-        <v>187779.008</v>
-      </c>
-      <c r="AG3" t="n">
         <v>166114</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>59787</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>36733</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>125677</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>48072</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>65283</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>66144</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>64942</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>38332</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>32643</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>31350</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>14930</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>9243</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>13355</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>10982</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>28710</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>25063</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>21592</v>
       </c>
     </row>
     <row r="4">
@@ -1030,121 +832,67 @@
         <v>271993.984</v>
       </c>
       <c r="L4" t="n">
-        <v>32715</v>
+        <v>204079.008</v>
       </c>
       <c r="M4" t="n">
-        <v>204079.008</v>
+        <v>186452.992</v>
       </c>
       <c r="N4" t="n">
-        <v>186452.992</v>
+        <v>161964</v>
       </c>
       <c r="O4" t="n">
-        <v>161964</v>
+        <v>6423</v>
       </c>
       <c r="P4" t="n">
-        <v>6423</v>
+        <v>4251</v>
       </c>
       <c r="Q4" t="n">
-        <v>4251</v>
+        <v>5379</v>
       </c>
       <c r="R4" t="n">
-        <v>5379</v>
+        <v>2646</v>
       </c>
       <c r="S4" t="n">
-        <v>2646</v>
+        <v>6650</v>
       </c>
       <c r="T4" t="n">
-        <v>6650</v>
+        <v>3735</v>
       </c>
       <c r="U4" t="n">
-        <v>3735</v>
+        <v>3408</v>
       </c>
       <c r="V4" t="n">
-        <v>3408</v>
+        <v>10366</v>
       </c>
       <c r="W4" t="n">
-        <v>10366</v>
+        <v>40468</v>
       </c>
       <c r="X4" t="n">
-        <v>40468</v>
+        <v>7353</v>
       </c>
       <c r="Y4" t="n">
-        <v>7353</v>
+        <v>3704</v>
       </c>
       <c r="Z4" t="n">
-        <v>3704</v>
+        <v>5487</v>
       </c>
       <c r="AA4" t="n">
-        <v>5487</v>
+        <v>12992</v>
       </c>
       <c r="AB4" t="n">
-        <v>12992</v>
+        <v>13063</v>
       </c>
       <c r="AC4" t="n">
-        <v>13063</v>
+        <v>4792</v>
       </c>
       <c r="AD4" t="n">
-        <v>4792</v>
+        <v>7241</v>
       </c>
       <c r="AE4" t="n">
-        <v>7241</v>
+        <v>7092</v>
       </c>
       <c r="AF4" t="n">
-        <v>7092</v>
-      </c>
-      <c r="AG4" t="n">
         <v>5766</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>323</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>610</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>424</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>797</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>284</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>189</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>146</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>96</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>108</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>85</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>227</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>61</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>95</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>54</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>69</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>206</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>18</v>
       </c>
     </row>
     <row r="5">
@@ -1193,112 +941,58 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>115285</v>
       </c>
       <c r="P5" t="n">
-        <v>115285</v>
+        <v>152899.008</v>
       </c>
       <c r="Q5" t="n">
-        <v>152899.008</v>
+        <v>172323.008</v>
       </c>
       <c r="R5" t="n">
-        <v>172323.008</v>
+        <v>28933</v>
       </c>
       <c r="S5" t="n">
-        <v>28933</v>
+        <v>22335</v>
       </c>
       <c r="T5" t="n">
-        <v>22335</v>
+        <v>7919</v>
       </c>
       <c r="U5" t="n">
-        <v>7919</v>
+        <v>12848</v>
       </c>
       <c r="V5" t="n">
-        <v>12848</v>
+        <v>8016</v>
       </c>
       <c r="W5" t="n">
-        <v>8016</v>
+        <v>2147</v>
       </c>
       <c r="X5" t="n">
-        <v>2147</v>
+        <v>8569</v>
       </c>
       <c r="Y5" t="n">
-        <v>8569</v>
+        <v>325361.984</v>
       </c>
       <c r="Z5" t="n">
-        <v>325361.984</v>
+        <v>304519.008</v>
       </c>
       <c r="AA5" t="n">
-        <v>304519.008</v>
+        <v>261424</v>
       </c>
       <c r="AB5" t="n">
-        <v>261424</v>
+        <v>92307</v>
       </c>
       <c r="AC5" t="n">
-        <v>92307</v>
+        <v>37157</v>
       </c>
       <c r="AD5" t="n">
-        <v>37157</v>
+        <v>124780</v>
       </c>
       <c r="AE5" t="n">
-        <v>124780</v>
+        <v>122154</v>
       </c>
       <c r="AF5" t="n">
-        <v>122154</v>
-      </c>
-      <c r="AG5" t="n">
         <v>93740</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>20734</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>8987</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>116536</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>43562</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>12763</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>9953</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>4707</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>31718</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>27276</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>26501</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>9857</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>4834</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>8766</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>7338</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>18865</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>22605</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>20554</v>
       </c>
     </row>
     <row r="6">
@@ -1338,121 +1032,67 @@
         <v>16893</v>
       </c>
       <c r="L6" t="n">
-        <v>537664</v>
+        <v>20927</v>
       </c>
       <c r="M6" t="n">
-        <v>20927</v>
+        <v>32610</v>
       </c>
       <c r="N6" t="n">
-        <v>32610</v>
+        <v>33786</v>
       </c>
       <c r="O6" t="n">
-        <v>33786</v>
+        <v>78923</v>
       </c>
       <c r="P6" t="n">
-        <v>78923</v>
+        <v>58971</v>
       </c>
       <c r="Q6" t="n">
-        <v>58971</v>
+        <v>39801</v>
       </c>
       <c r="R6" t="n">
-        <v>39801</v>
+        <v>45879</v>
       </c>
       <c r="S6" t="n">
-        <v>45879</v>
+        <v>49595</v>
       </c>
       <c r="T6" t="n">
-        <v>49595</v>
+        <v>58579</v>
       </c>
       <c r="U6" t="n">
-        <v>58579</v>
+        <v>58143</v>
       </c>
       <c r="V6" t="n">
-        <v>58143</v>
+        <v>67851</v>
       </c>
       <c r="W6" t="n">
-        <v>67851</v>
+        <v>42857</v>
       </c>
       <c r="X6" t="n">
-        <v>42857</v>
+        <v>47425</v>
       </c>
       <c r="Y6" t="n">
-        <v>47425</v>
+        <v>45675</v>
       </c>
       <c r="Z6" t="n">
-        <v>45675</v>
+        <v>42190</v>
       </c>
       <c r="AA6" t="n">
-        <v>42190</v>
+        <v>47328</v>
       </c>
       <c r="AB6" t="n">
-        <v>47328</v>
+        <v>40605</v>
       </c>
       <c r="AC6" t="n">
-        <v>40605</v>
+        <v>56755</v>
       </c>
       <c r="AD6" t="n">
-        <v>56755</v>
+        <v>56730</v>
       </c>
       <c r="AE6" t="n">
-        <v>56730</v>
+        <v>48944</v>
       </c>
       <c r="AF6" t="n">
-        <v>48944</v>
-      </c>
-      <c r="AG6" t="n">
         <v>52772</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>23742</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>16448</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>5455</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>923</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>9954</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>13806</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>56935</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>3578</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>3745</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>3700</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>3747</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>3582</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>3735</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>3071</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>9314</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>2052</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>860</v>
       </c>
     </row>
     <row r="7">
@@ -1492,121 +1132,67 @@
         <v>906</v>
       </c>
       <c r="L7" t="n">
-        <v>409147.008</v>
+        <v>914</v>
       </c>
       <c r="M7" t="n">
-        <v>914</v>
+        <v>1458</v>
       </c>
       <c r="N7" t="n">
-        <v>1458</v>
+        <v>1573</v>
       </c>
       <c r="O7" t="n">
-        <v>1573</v>
+        <v>1873</v>
       </c>
       <c r="P7" t="n">
-        <v>1873</v>
+        <v>1667</v>
       </c>
       <c r="Q7" t="n">
-        <v>1667</v>
+        <v>1172</v>
       </c>
       <c r="R7" t="n">
-        <v>1172</v>
+        <v>1398</v>
       </c>
       <c r="S7" t="n">
-        <v>1398</v>
+        <v>1603</v>
       </c>
       <c r="T7" t="n">
-        <v>1603</v>
+        <v>1497</v>
       </c>
       <c r="U7" t="n">
-        <v>1497</v>
+        <v>1527</v>
       </c>
       <c r="V7" t="n">
-        <v>1527</v>
+        <v>1577</v>
       </c>
       <c r="W7" t="n">
-        <v>1577</v>
+        <v>1725</v>
       </c>
       <c r="X7" t="n">
-        <v>1725</v>
+        <v>1575</v>
       </c>
       <c r="Y7" t="n">
-        <v>1575</v>
+        <v>1571</v>
       </c>
       <c r="Z7" t="n">
-        <v>1571</v>
+        <v>1402</v>
       </c>
       <c r="AA7" t="n">
-        <v>1402</v>
+        <v>1711</v>
       </c>
       <c r="AB7" t="n">
-        <v>1711</v>
+        <v>1766</v>
       </c>
       <c r="AC7" t="n">
-        <v>1766</v>
+        <v>1783</v>
       </c>
       <c r="AD7" t="n">
-        <v>1783</v>
+        <v>1618</v>
       </c>
       <c r="AE7" t="n">
-        <v>1618</v>
+        <v>1569</v>
       </c>
       <c r="AF7" t="n">
-        <v>1569</v>
-      </c>
-      <c r="AG7" t="n">
         <v>1547</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>4746</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>1171</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1708,60 +1294,6 @@
       <c r="AF8" t="n">
         <v>0</v>
       </c>
-      <c r="AG8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1830,91 +1362,37 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>5281</v>
       </c>
       <c r="W9" t="n">
-        <v>5281</v>
+        <v>7169</v>
       </c>
       <c r="X9" t="n">
-        <v>7169</v>
+        <v>7677</v>
       </c>
       <c r="Y9" t="n">
-        <v>7677</v>
+        <v>6711</v>
       </c>
       <c r="Z9" t="n">
-        <v>6711</v>
+        <v>10250</v>
       </c>
       <c r="AA9" t="n">
-        <v>10250</v>
+        <v>7284</v>
       </c>
       <c r="AB9" t="n">
-        <v>7284</v>
+        <v>8488</v>
       </c>
       <c r="AC9" t="n">
-        <v>8488</v>
+        <v>9339</v>
       </c>
       <c r="AD9" t="n">
-        <v>9339</v>
+        <v>13222</v>
       </c>
       <c r="AE9" t="n">
-        <v>13222</v>
+        <v>7953</v>
       </c>
       <c r="AF9" t="n">
-        <v>7953</v>
-      </c>
-      <c r="AG9" t="n">
         <v>8210</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>10242</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>9517</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>3262</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>2790</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>3841</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>3755</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>3154</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>2940</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>1514</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>1064</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>1099</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>766</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>759</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>519</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>462</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>200</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>160</v>
       </c>
     </row>
     <row r="10">
@@ -1963,112 +1441,58 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>965</v>
       </c>
       <c r="P10" t="n">
-        <v>965</v>
+        <v>2542</v>
       </c>
       <c r="Q10" t="n">
-        <v>2542</v>
+        <v>3246</v>
       </c>
       <c r="R10" t="n">
-        <v>3246</v>
+        <v>2147</v>
       </c>
       <c r="S10" t="n">
-        <v>2147</v>
+        <v>1993</v>
       </c>
       <c r="T10" t="n">
-        <v>1993</v>
+        <v>5507</v>
       </c>
       <c r="U10" t="n">
-        <v>5507</v>
+        <v>4910</v>
       </c>
       <c r="V10" t="n">
-        <v>4910</v>
+        <v>2246</v>
       </c>
       <c r="W10" t="n">
-        <v>2246</v>
+        <v>224</v>
       </c>
       <c r="X10" t="n">
-        <v>224</v>
+        <v>3267</v>
       </c>
       <c r="Y10" t="n">
-        <v>3267</v>
+        <v>2529</v>
       </c>
       <c r="Z10" t="n">
-        <v>2529</v>
+        <v>1501</v>
       </c>
       <c r="AA10" t="n">
-        <v>1501</v>
+        <v>389</v>
       </c>
       <c r="AB10" t="n">
-        <v>389</v>
+        <v>4734</v>
       </c>
       <c r="AC10" t="n">
-        <v>4734</v>
+        <v>3588</v>
       </c>
       <c r="AD10" t="n">
-        <v>3588</v>
+        <v>1872</v>
       </c>
       <c r="AE10" t="n">
-        <v>1872</v>
+        <v>67</v>
       </c>
       <c r="AF10" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG10" t="n">
         <v>4079</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -2108,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>21635</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1619</v>
       </c>
       <c r="N11" t="n">
-        <v>1619</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -2141,10 +1565,10 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>1082</v>
       </c>
       <c r="X11" t="n">
-        <v>1082</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -2159,69 +1583,15 @@
         <v>0</v>
       </c>
       <c r="AC11" t="n">
-        <v>0</v>
+        <v>204891.008</v>
       </c>
       <c r="AD11" t="n">
-        <v>204891.008</v>
+        <v>0</v>
       </c>
       <c r="AE11" t="n">
         <v>0</v>
       </c>
       <c r="AF11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>38441</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>38441</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2262,121 +1632,67 @@
         <v>211319.008</v>
       </c>
       <c r="L12" t="n">
-        <v>163375.008</v>
+        <v>220988.992</v>
       </c>
       <c r="M12" t="n">
-        <v>220988.992</v>
+        <v>223282</v>
       </c>
       <c r="N12" t="n">
-        <v>223282</v>
+        <v>223592</v>
       </c>
       <c r="O12" t="n">
-        <v>223592</v>
+        <v>180874</v>
       </c>
       <c r="P12" t="n">
-        <v>180874</v>
+        <v>222324.992</v>
       </c>
       <c r="Q12" t="n">
-        <v>222324.992</v>
+        <v>235298</v>
       </c>
       <c r="R12" t="n">
-        <v>235298</v>
+        <v>236932.992</v>
       </c>
       <c r="S12" t="n">
-        <v>236932.992</v>
+        <v>206592</v>
       </c>
       <c r="T12" t="n">
-        <v>206592</v>
+        <v>209548.992</v>
       </c>
       <c r="U12" t="n">
-        <v>209548.992</v>
+        <v>209368.992</v>
       </c>
       <c r="V12" t="n">
-        <v>209368.992</v>
+        <v>205466</v>
       </c>
       <c r="W12" t="n">
-        <v>205466</v>
+        <v>219320</v>
       </c>
       <c r="X12" t="n">
-        <v>219320</v>
+        <v>195696.992</v>
       </c>
       <c r="Y12" t="n">
-        <v>195696.992</v>
+        <v>201844</v>
       </c>
       <c r="Z12" t="n">
-        <v>201844</v>
+        <v>204360</v>
       </c>
       <c r="AA12" t="n">
-        <v>204360</v>
+        <v>207487.008</v>
       </c>
       <c r="AB12" t="n">
-        <v>207487.008</v>
+        <v>220616.992</v>
       </c>
       <c r="AC12" t="n">
-        <v>220616.992</v>
+        <v>203380</v>
       </c>
       <c r="AD12" t="n">
-        <v>203380</v>
+        <v>212611.008</v>
       </c>
       <c r="AE12" t="n">
-        <v>212611.008</v>
+        <v>218952</v>
       </c>
       <c r="AF12" t="n">
-        <v>218952</v>
-      </c>
-      <c r="AG12" t="n">
         <v>222242</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>141804</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>142484.992</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>61258</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>83033</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>37901</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>42671</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>42505</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>42569</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>42168</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>32861</v>
-      </c>
-      <c r="AR12" t="n">
-        <v>32603</v>
-      </c>
-      <c r="AS12" t="n">
-        <v>32525</v>
-      </c>
-      <c r="AT12" t="n">
-        <v>29773</v>
-      </c>
-      <c r="AU12" t="n">
-        <v>30201</v>
-      </c>
-      <c r="AV12" t="n">
-        <v>4050</v>
-      </c>
-      <c r="AW12" t="n">
-        <v>3980</v>
-      </c>
-      <c r="AX12" t="n">
-        <v>3953</v>
       </c>
     </row>
     <row r="13">
@@ -2478,60 +1794,6 @@
       <c r="AF13" t="n">
         <v>0</v>
       </c>
-      <c r="AG13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX13" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2632,60 +1894,6 @@
       <c r="AF14" t="n">
         <v>0</v>
       </c>
-      <c r="AG14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX14" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2724,58 +1932,58 @@
         <v>55593</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>61231</v>
       </c>
       <c r="M15" t="n">
-        <v>61231</v>
+        <v>63093</v>
       </c>
       <c r="N15" t="n">
-        <v>63093</v>
+        <v>63010</v>
       </c>
       <c r="O15" t="n">
-        <v>63010</v>
+        <v>460</v>
       </c>
       <c r="P15" t="n">
         <v>460</v>
       </c>
       <c r="Q15" t="n">
-        <v>460</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" t="n">
+        <v>807</v>
+      </c>
+      <c r="V15" t="n">
         <v>5</v>
       </c>
-      <c r="U15" t="n">
-        <v>0</v>
-      </c>
-      <c r="V15" t="n">
-        <v>807</v>
-      </c>
       <c r="W15" t="n">
-        <v>5</v>
+        <v>16113</v>
       </c>
       <c r="X15" t="n">
-        <v>16113</v>
+        <v>22388</v>
       </c>
       <c r="Y15" t="n">
-        <v>22388</v>
+        <v>21799</v>
       </c>
       <c r="Z15" t="n">
-        <v>21799</v>
+        <v>24811</v>
       </c>
       <c r="AA15" t="n">
-        <v>24811</v>
+        <v>28131</v>
       </c>
       <c r="AB15" t="n">
-        <v>28131</v>
+        <v>31508</v>
       </c>
       <c r="AC15" t="n">
-        <v>31508</v>
+        <v>0</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -2784,61 +1992,7 @@
         <v>0</v>
       </c>
       <c r="AF15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG15" t="n">
         <v>13886</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>90883</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>92217</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>16508</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>18324</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>11837</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>16808</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>17134</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>17444</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>17589</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>8420</v>
-      </c>
-      <c r="AR15" t="n">
-        <v>8295</v>
-      </c>
-      <c r="AS15" t="n">
-        <v>8314</v>
-      </c>
-      <c r="AT15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX15" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -2887,112 +2041,58 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>157679.008</v>
       </c>
       <c r="P16" t="n">
-        <v>157679.008</v>
+        <v>157204.992</v>
       </c>
       <c r="Q16" t="n">
-        <v>157204.992</v>
+        <v>157620.992</v>
       </c>
       <c r="R16" t="n">
-        <v>157620.992</v>
+        <v>157816.992</v>
       </c>
       <c r="S16" t="n">
-        <v>157816.992</v>
+        <v>158172.992</v>
       </c>
       <c r="T16" t="n">
-        <v>158172.992</v>
+        <v>159048</v>
       </c>
       <c r="U16" t="n">
-        <v>159048</v>
+        <v>159764.992</v>
       </c>
       <c r="V16" t="n">
         <v>159764.992</v>
       </c>
       <c r="W16" t="n">
-        <v>159764.992</v>
+        <v>157476</v>
       </c>
       <c r="X16" t="n">
-        <v>157476</v>
+        <v>127714</v>
       </c>
       <c r="Y16" t="n">
-        <v>127714</v>
+        <v>130276</v>
       </c>
       <c r="Z16" t="n">
-        <v>130276</v>
+        <v>129990</v>
       </c>
       <c r="AA16" t="n">
-        <v>129990</v>
+        <v>128320</v>
       </c>
       <c r="AB16" t="n">
-        <v>128320</v>
+        <v>129367</v>
       </c>
       <c r="AC16" t="n">
-        <v>129367</v>
+        <v>138084</v>
       </c>
       <c r="AD16" t="n">
-        <v>138084</v>
+        <v>138702</v>
       </c>
       <c r="AE16" t="n">
-        <v>138702</v>
+        <v>139300</v>
       </c>
       <c r="AF16" t="n">
-        <v>139300</v>
-      </c>
-      <c r="AG16" t="n">
         <v>139855.008</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT16" t="n">
-        <v>5676</v>
-      </c>
-      <c r="AU16" t="n">
-        <v>6128</v>
-      </c>
-      <c r="AV16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX16" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -3094,60 +2194,6 @@
       <c r="AF17" t="n">
         <v>0</v>
       </c>
-      <c r="AG17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX17" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -3207,100 +2253,46 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>12690</v>
       </c>
       <c r="T18" t="n">
-        <v>12690</v>
+        <v>12720</v>
       </c>
       <c r="U18" t="n">
-        <v>12720</v>
+        <v>12689</v>
       </c>
       <c r="V18" t="n">
-        <v>12689</v>
+        <v>13008</v>
       </c>
       <c r="W18" t="n">
-        <v>13008</v>
+        <v>14011</v>
       </c>
       <c r="X18" t="n">
-        <v>14011</v>
+        <v>12991</v>
       </c>
       <c r="Y18" t="n">
-        <v>12991</v>
+        <v>13233</v>
       </c>
       <c r="Z18" t="n">
-        <v>13233</v>
+        <v>12989</v>
       </c>
       <c r="AA18" t="n">
-        <v>12989</v>
+        <v>13494</v>
       </c>
       <c r="AB18" t="n">
-        <v>13494</v>
+        <v>13156</v>
       </c>
       <c r="AC18" t="n">
-        <v>13156</v>
+        <v>13007</v>
       </c>
       <c r="AD18" t="n">
-        <v>13007</v>
+        <v>13430</v>
       </c>
       <c r="AE18" t="n">
-        <v>13430</v>
+        <v>13288</v>
       </c>
       <c r="AF18" t="n">
-        <v>13288</v>
-      </c>
-      <c r="AG18" t="n">
         <v>13307</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>5291</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>5246</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>181</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>136</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>91</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>45</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX18" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -3402,60 +2394,6 @@
       <c r="AF19" t="n">
         <v>0</v>
       </c>
-      <c r="AG19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX19" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3494,28 +2432,28 @@
         <v>1499</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1972</v>
       </c>
       <c r="M20" t="n">
-        <v>1972</v>
+        <v>1090</v>
       </c>
       <c r="N20" t="n">
         <v>1090</v>
       </c>
       <c r="O20" t="n">
-        <v>1090</v>
+        <v>1163</v>
       </c>
       <c r="P20" t="n">
-        <v>1163</v>
+        <v>1181</v>
       </c>
       <c r="Q20" t="n">
-        <v>1181</v>
+        <v>527</v>
       </c>
       <c r="R20" t="n">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="S20" t="n">
-        <v>519</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -3527,88 +2465,34 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>890</v>
       </c>
       <c r="X20" t="n">
-        <v>890</v>
+        <v>3099</v>
       </c>
       <c r="Y20" t="n">
-        <v>3099</v>
+        <v>2214</v>
       </c>
       <c r="Z20" t="n">
-        <v>2214</v>
+        <v>2036</v>
       </c>
       <c r="AA20" t="n">
-        <v>2036</v>
+        <v>1842</v>
       </c>
       <c r="AB20" t="n">
-        <v>1842</v>
+        <v>7852</v>
       </c>
       <c r="AC20" t="n">
-        <v>7852</v>
+        <v>8363</v>
       </c>
       <c r="AD20" t="n">
-        <v>8363</v>
+        <v>9546</v>
       </c>
       <c r="AE20" t="n">
-        <v>9546</v>
+        <v>17422</v>
       </c>
       <c r="AF20" t="n">
-        <v>17422</v>
-      </c>
-      <c r="AG20" t="n">
         <v>18093</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX20" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -3648,121 +2532,67 @@
         <v>154227.008</v>
       </c>
       <c r="L21" t="n">
-        <v>163375.008</v>
+        <v>157786</v>
       </c>
       <c r="M21" t="n">
-        <v>157786</v>
+        <v>159099.008</v>
       </c>
       <c r="N21" t="n">
-        <v>159099.008</v>
+        <v>159492</v>
       </c>
       <c r="O21" t="n">
-        <v>159492</v>
+        <v>21572</v>
       </c>
       <c r="P21" t="n">
-        <v>21572</v>
+        <v>63479</v>
       </c>
       <c r="Q21" t="n">
-        <v>63479</v>
+        <v>77150</v>
       </c>
       <c r="R21" t="n">
-        <v>77150</v>
+        <v>78597</v>
       </c>
       <c r="S21" t="n">
-        <v>78597</v>
+        <v>35724</v>
       </c>
       <c r="T21" t="n">
-        <v>35724</v>
+        <v>37781</v>
       </c>
       <c r="U21" t="n">
-        <v>37781</v>
+        <v>36108</v>
       </c>
       <c r="V21" t="n">
-        <v>36108</v>
+        <v>32688</v>
       </c>
       <c r="W21" t="n">
-        <v>32688</v>
+        <v>30830</v>
       </c>
       <c r="X21" t="n">
-        <v>30830</v>
+        <v>29505</v>
       </c>
       <c r="Y21" t="n">
-        <v>29505</v>
+        <v>34322</v>
       </c>
       <c r="Z21" t="n">
-        <v>34322</v>
+        <v>34534</v>
       </c>
       <c r="AA21" t="n">
-        <v>34534</v>
+        <v>35700</v>
       </c>
       <c r="AB21" t="n">
-        <v>35700</v>
+        <v>38734</v>
       </c>
       <c r="AC21" t="n">
-        <v>38734</v>
+        <v>43926</v>
       </c>
       <c r="AD21" t="n">
-        <v>43926</v>
+        <v>50933</v>
       </c>
       <c r="AE21" t="n">
-        <v>50933</v>
+        <v>48942</v>
       </c>
       <c r="AF21" t="n">
-        <v>48942</v>
-      </c>
-      <c r="AG21" t="n">
         <v>37101</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>45630</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>45022</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>44569</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>64573</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>25973</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>25818</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>25371</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>25125</v>
-      </c>
-      <c r="AP21" t="n">
-        <v>24579</v>
-      </c>
-      <c r="AQ21" t="n">
-        <v>24441</v>
-      </c>
-      <c r="AR21" t="n">
-        <v>24308</v>
-      </c>
-      <c r="AS21" t="n">
-        <v>24211</v>
-      </c>
-      <c r="AT21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX21" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -3802,13 +2632,13 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>332</v>
+        <v>3800</v>
       </c>
       <c r="M22" t="n">
-        <v>3800</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>4320</v>
       </c>
       <c r="O22" t="n">
         <v>4320</v>
@@ -3826,97 +2656,43 @@
         <v>4320</v>
       </c>
       <c r="T22" t="n">
+        <v>8467</v>
+      </c>
+      <c r="U22" t="n">
         <v>4320</v>
-      </c>
-      <c r="U22" t="n">
-        <v>8467</v>
       </c>
       <c r="V22" t="n">
         <v>4320</v>
       </c>
       <c r="W22" t="n">
-        <v>4320</v>
+        <v>18912</v>
       </c>
       <c r="X22" t="n">
-        <v>18912</v>
+        <v>45772</v>
       </c>
       <c r="Y22" t="n">
-        <v>45772</v>
+        <v>38080</v>
       </c>
       <c r="Z22" t="n">
-        <v>38080</v>
+        <v>45824</v>
       </c>
       <c r="AA22" t="n">
-        <v>45824</v>
+        <v>99016</v>
       </c>
       <c r="AB22" t="n">
-        <v>99016</v>
+        <v>99632</v>
       </c>
       <c r="AC22" t="n">
-        <v>99632</v>
+        <v>50875</v>
       </c>
       <c r="AD22" t="n">
-        <v>50875</v>
+        <v>49801</v>
       </c>
       <c r="AE22" t="n">
-        <v>49801</v>
+        <v>60892</v>
       </c>
       <c r="AF22" t="n">
-        <v>60892</v>
-      </c>
-      <c r="AG22" t="n">
         <v>60969</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>30206</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>29597</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>29037</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>28480</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>27922</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>27364</v>
-      </c>
-      <c r="AP22" t="n">
-        <v>26807</v>
-      </c>
-      <c r="AQ22" t="n">
-        <v>26254</v>
-      </c>
-      <c r="AR22" t="n">
-        <v>25724</v>
-      </c>
-      <c r="AS22" t="n">
-        <v>25195</v>
-      </c>
-      <c r="AT22" t="n">
-        <v>24668</v>
-      </c>
-      <c r="AU22" t="n">
-        <v>24144</v>
-      </c>
-      <c r="AV22" t="n">
-        <v>23624</v>
-      </c>
-      <c r="AW22" t="n">
-        <v>23107</v>
-      </c>
-      <c r="AX22" t="n">
-        <v>22593</v>
       </c>
     </row>
     <row r="23">
@@ -3956,121 +2732,67 @@
         <v>196062</v>
       </c>
       <c r="L23" t="n">
-        <v>113984</v>
+        <v>289680.992</v>
       </c>
       <c r="M23" t="n">
-        <v>289680.992</v>
+        <v>298948.992</v>
       </c>
       <c r="N23" t="n">
-        <v>298948.992</v>
+        <v>315775.008</v>
       </c>
       <c r="O23" t="n">
-        <v>315775.008</v>
+        <v>359552.992</v>
       </c>
       <c r="P23" t="n">
-        <v>359552.992</v>
+        <v>452644.992</v>
       </c>
       <c r="Q23" t="n">
-        <v>452644.992</v>
+        <v>442896</v>
       </c>
       <c r="R23" t="n">
-        <v>442896</v>
+        <v>651660.032</v>
       </c>
       <c r="S23" t="n">
-        <v>651660.032</v>
+        <v>677817.024</v>
       </c>
       <c r="T23" t="n">
-        <v>677817.024</v>
+        <v>687180.032</v>
       </c>
       <c r="U23" t="n">
-        <v>687180.032</v>
+        <v>730182.0159999999</v>
       </c>
       <c r="V23" t="n">
-        <v>730182.0159999999</v>
+        <v>731504</v>
       </c>
       <c r="W23" t="n">
-        <v>731504</v>
+        <v>744558.0159999999</v>
       </c>
       <c r="X23" t="n">
-        <v>744558.0159999999</v>
+        <v>741641.024</v>
       </c>
       <c r="Y23" t="n">
-        <v>741641.024</v>
+        <v>750891.008</v>
       </c>
       <c r="Z23" t="n">
-        <v>750891.008</v>
+        <v>762417.024</v>
       </c>
       <c r="AA23" t="n">
-        <v>762417.024</v>
+        <v>732894.0159999999</v>
       </c>
       <c r="AB23" t="n">
-        <v>732894.0159999999</v>
+        <v>772745.9840000001</v>
       </c>
       <c r="AC23" t="n">
-        <v>772745.9840000001</v>
+        <v>829974.0159999999</v>
       </c>
       <c r="AD23" t="n">
-        <v>829974.0159999999</v>
+        <v>849388.032</v>
       </c>
       <c r="AE23" t="n">
-        <v>849388.032</v>
+        <v>881721.9840000001</v>
       </c>
       <c r="AF23" t="n">
-        <v>881721.9840000001</v>
-      </c>
-      <c r="AG23" t="n">
         <v>878360</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>34151</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>33110</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>1759</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>1577</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>1395</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>1213</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>1032</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>851</v>
-      </c>
-      <c r="AP23" t="n">
-        <v>671</v>
-      </c>
-      <c r="AQ23" t="n">
-        <v>507</v>
-      </c>
-      <c r="AR23" t="n">
-        <v>384</v>
-      </c>
-      <c r="AS23" t="n">
-        <v>261</v>
-      </c>
-      <c r="AT23" t="n">
-        <v>143</v>
-      </c>
-      <c r="AU23" t="n">
-        <v>64</v>
-      </c>
-      <c r="AV23" t="n">
-        <v>55</v>
-      </c>
-      <c r="AW23" t="n">
-        <v>48</v>
-      </c>
-      <c r="AX23" t="n">
-        <v>40</v>
       </c>
     </row>
     <row r="24">
@@ -4110,121 +2832,67 @@
         <v>38201</v>
       </c>
       <c r="L24" t="n">
-        <v>14885</v>
+        <v>39358</v>
       </c>
       <c r="M24" t="n">
-        <v>39358</v>
+        <v>45760</v>
       </c>
       <c r="N24" t="n">
-        <v>45760</v>
+        <v>46230</v>
       </c>
       <c r="O24" t="n">
-        <v>46230</v>
+        <v>53124</v>
       </c>
       <c r="P24" t="n">
-        <v>53124</v>
+        <v>53582</v>
       </c>
       <c r="Q24" t="n">
-        <v>53582</v>
+        <v>44113</v>
       </c>
       <c r="R24" t="n">
-        <v>44113</v>
+        <v>45023</v>
       </c>
       <c r="S24" t="n">
-        <v>45023</v>
+        <v>45197</v>
       </c>
       <c r="T24" t="n">
-        <v>45197</v>
+        <v>45965</v>
       </c>
       <c r="U24" t="n">
-        <v>45965</v>
+        <v>51955</v>
       </c>
       <c r="V24" t="n">
-        <v>51955</v>
+        <v>54374</v>
       </c>
       <c r="W24" t="n">
-        <v>54374</v>
+        <v>54487</v>
       </c>
       <c r="X24" t="n">
-        <v>54487</v>
+        <v>50551</v>
       </c>
       <c r="Y24" t="n">
-        <v>50551</v>
+        <v>65424</v>
       </c>
       <c r="Z24" t="n">
-        <v>65424</v>
+        <v>63103</v>
       </c>
       <c r="AA24" t="n">
-        <v>63103</v>
+        <v>53213</v>
       </c>
       <c r="AB24" t="n">
-        <v>53213</v>
+        <v>182567.008</v>
       </c>
       <c r="AC24" t="n">
-        <v>182567.008</v>
+        <v>90920</v>
       </c>
       <c r="AD24" t="n">
-        <v>90920</v>
+        <v>90488</v>
       </c>
       <c r="AE24" t="n">
-        <v>90488</v>
+        <v>60941</v>
       </c>
       <c r="AF24" t="n">
-        <v>60941</v>
-      </c>
-      <c r="AG24" t="n">
         <v>60181</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>4242</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>3927</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>169</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>142</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>120</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>107</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>94</v>
-      </c>
-      <c r="AO24" t="n">
-        <v>81</v>
-      </c>
-      <c r="AP24" t="n">
-        <v>68</v>
-      </c>
-      <c r="AQ24" t="n">
-        <v>55</v>
-      </c>
-      <c r="AR24" t="n">
-        <v>42</v>
-      </c>
-      <c r="AS24" t="n">
-        <v>29</v>
-      </c>
-      <c r="AT24" t="n">
-        <v>17</v>
-      </c>
-      <c r="AU24" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX24" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -4264,16 +2932,16 @@
         <v>2467</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>2299</v>
       </c>
       <c r="M25" t="n">
-        <v>2299</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>2131</v>
       </c>
       <c r="O25" t="n">
-        <v>2131</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -4324,60 +2992,6 @@
         <v>0</v>
       </c>
       <c r="AF25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4418,121 +3032,67 @@
         <v>737841.9840000001</v>
       </c>
       <c r="L26" t="n">
-        <v>1293736.96</v>
+        <v>782046.976</v>
       </c>
       <c r="M26" t="n">
-        <v>782046.976</v>
+        <v>790131.008</v>
       </c>
       <c r="N26" t="n">
-        <v>790131.008</v>
+        <v>789371.008</v>
       </c>
       <c r="O26" t="n">
-        <v>789371.008</v>
+        <v>801340.032</v>
       </c>
       <c r="P26" t="n">
-        <v>801340.032</v>
+        <v>953201.9840000001</v>
       </c>
       <c r="Q26" t="n">
-        <v>953201.9840000001</v>
+        <v>948547.968</v>
       </c>
       <c r="R26" t="n">
-        <v>948547.968</v>
+        <v>1018939.008</v>
       </c>
       <c r="S26" t="n">
-        <v>1018939.008</v>
+        <v>1016102.016</v>
       </c>
       <c r="T26" t="n">
-        <v>1016102.016</v>
+        <v>1028398.016</v>
       </c>
       <c r="U26" t="n">
-        <v>1028398.016</v>
+        <v>1076662.016</v>
       </c>
       <c r="V26" t="n">
-        <v>1076662.016</v>
+        <v>1091000.96</v>
       </c>
       <c r="W26" t="n">
-        <v>1091000.96</v>
+        <v>1132948.992</v>
       </c>
       <c r="X26" t="n">
-        <v>1132948.992</v>
+        <v>1109527.04</v>
       </c>
       <c r="Y26" t="n">
-        <v>1109527.04</v>
+        <v>1441790.976</v>
       </c>
       <c r="Z26" t="n">
-        <v>1441790.976</v>
+        <v>1441053.056</v>
       </c>
       <c r="AA26" t="n">
-        <v>1441053.056</v>
+        <v>1423737.984</v>
       </c>
       <c r="AB26" t="n">
-        <v>1423737.984</v>
+        <v>1436525.056</v>
       </c>
       <c r="AC26" t="n">
-        <v>1436525.056</v>
+        <v>1493453.952</v>
       </c>
       <c r="AD26" t="n">
-        <v>1493453.952</v>
+        <v>1407751.04</v>
       </c>
       <c r="AE26" t="n">
-        <v>1407751.04</v>
+        <v>1410285.952</v>
       </c>
       <c r="AF26" t="n">
-        <v>1410285.952</v>
-      </c>
-      <c r="AG26" t="n">
         <v>1387865.984</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>239984</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>216255.008</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>219068.992</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>162420.992</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>133736</v>
-      </c>
-      <c r="AM26" t="n">
-        <v>138615.008</v>
-      </c>
-      <c r="AN26" t="n">
-        <v>136495.008</v>
-      </c>
-      <c r="AO26" t="n">
-        <v>109197</v>
-      </c>
-      <c r="AP26" t="n">
-        <v>102357</v>
-      </c>
-      <c r="AQ26" t="n">
-        <v>91027</v>
-      </c>
-      <c r="AR26" t="n">
-        <v>73683</v>
-      </c>
-      <c r="AS26" t="n">
-        <v>67253</v>
-      </c>
-      <c r="AT26" t="n">
-        <v>67956</v>
-      </c>
-      <c r="AU26" t="n">
-        <v>65398</v>
-      </c>
-      <c r="AV26" t="n">
-        <v>56439</v>
-      </c>
-      <c r="AW26" t="n">
-        <v>52198</v>
-      </c>
-      <c r="AX26" t="n">
-        <v>48178</v>
       </c>
     </row>
     <row r="27">
@@ -4572,121 +3132,67 @@
         <v>27777</v>
       </c>
       <c r="L27" t="n">
-        <v>562380.992</v>
+        <v>43211</v>
       </c>
       <c r="M27" t="n">
-        <v>43211</v>
+        <v>49366</v>
       </c>
       <c r="N27" t="n">
-        <v>49366</v>
+        <v>58669</v>
       </c>
       <c r="O27" t="n">
-        <v>58669</v>
+        <v>67256</v>
       </c>
       <c r="P27" t="n">
-        <v>67256</v>
+        <v>102742</v>
       </c>
       <c r="Q27" t="n">
-        <v>102742</v>
+        <v>90766</v>
       </c>
       <c r="R27" t="n">
-        <v>90766</v>
+        <v>161032</v>
       </c>
       <c r="S27" t="n">
-        <v>161032</v>
+        <v>151147.008</v>
       </c>
       <c r="T27" t="n">
-        <v>151147.008</v>
+        <v>160576</v>
       </c>
       <c r="U27" t="n">
-        <v>160576</v>
+        <v>178340</v>
       </c>
       <c r="V27" t="n">
-        <v>178340</v>
+        <v>196943.008</v>
       </c>
       <c r="W27" t="n">
-        <v>196943.008</v>
+        <v>171360.992</v>
       </c>
       <c r="X27" t="n">
-        <v>171360.992</v>
+        <v>153760.992</v>
       </c>
       <c r="Y27" t="n">
-        <v>153760.992</v>
+        <v>158308.992</v>
       </c>
       <c r="Z27" t="n">
-        <v>158308.992</v>
+        <v>160128.992</v>
       </c>
       <c r="AA27" t="n">
-        <v>160128.992</v>
+        <v>142987.008</v>
       </c>
       <c r="AB27" t="n">
-        <v>142987.008</v>
+        <v>171158</v>
       </c>
       <c r="AC27" t="n">
-        <v>171158</v>
+        <v>194682</v>
       </c>
       <c r="AD27" t="n">
-        <v>194682</v>
+        <v>109163</v>
       </c>
       <c r="AE27" t="n">
-        <v>109163</v>
+        <v>175234</v>
       </c>
       <c r="AF27" t="n">
-        <v>175234</v>
-      </c>
-      <c r="AG27" t="n">
         <v>172218</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>75754</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>73418</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>91594</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>46415</v>
-      </c>
-      <c r="AL27" t="n">
-        <v>29593</v>
-      </c>
-      <c r="AM27" t="n">
-        <v>37015</v>
-      </c>
-      <c r="AN27" t="n">
-        <v>41599</v>
-      </c>
-      <c r="AO27" t="n">
-        <v>23464</v>
-      </c>
-      <c r="AP27" t="n">
-        <v>17798</v>
-      </c>
-      <c r="AQ27" t="n">
-        <v>21975</v>
-      </c>
-      <c r="AR27" t="n">
-        <v>7917</v>
-      </c>
-      <c r="AS27" t="n">
-        <v>3107</v>
-      </c>
-      <c r="AT27" t="n">
-        <v>2629</v>
-      </c>
-      <c r="AU27" t="n">
-        <v>4816</v>
-      </c>
-      <c r="AV27" t="n">
-        <v>4997</v>
-      </c>
-      <c r="AW27" t="n">
-        <v>4088</v>
-      </c>
-      <c r="AX27" t="n">
-        <v>4128</v>
       </c>
     </row>
     <row r="28">
@@ -4735,112 +3241,58 @@
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>5631</v>
       </c>
       <c r="P28" t="n">
-        <v>5631</v>
+        <v>7985</v>
       </c>
       <c r="Q28" t="n">
-        <v>7985</v>
+        <v>7692</v>
       </c>
       <c r="R28" t="n">
-        <v>7692</v>
+        <v>9605</v>
       </c>
       <c r="S28" t="n">
-        <v>9605</v>
+        <v>9872</v>
       </c>
       <c r="T28" t="n">
-        <v>9872</v>
+        <v>8760</v>
       </c>
       <c r="U28" t="n">
-        <v>8760</v>
+        <v>9117</v>
       </c>
       <c r="V28" t="n">
-        <v>9117</v>
+        <v>10314</v>
       </c>
       <c r="W28" t="n">
-        <v>10314</v>
+        <v>10125</v>
       </c>
       <c r="X28" t="n">
-        <v>10125</v>
+        <v>7962</v>
       </c>
       <c r="Y28" t="n">
-        <v>7962</v>
+        <v>7836</v>
       </c>
       <c r="Z28" t="n">
-        <v>7836</v>
+        <v>8082</v>
       </c>
       <c r="AA28" t="n">
-        <v>8082</v>
+        <v>6803</v>
       </c>
       <c r="AB28" t="n">
-        <v>6803</v>
+        <v>10722</v>
       </c>
       <c r="AC28" t="n">
-        <v>10722</v>
+        <v>11511</v>
       </c>
       <c r="AD28" t="n">
-        <v>11511</v>
+        <v>22905</v>
       </c>
       <c r="AE28" t="n">
-        <v>22905</v>
+        <v>10898</v>
       </c>
       <c r="AF28" t="n">
-        <v>10898</v>
-      </c>
-      <c r="AG28" t="n">
         <v>11894</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>875</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>953</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>1725</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>975</v>
-      </c>
-      <c r="AL28" t="n">
-        <v>564</v>
-      </c>
-      <c r="AM28" t="n">
-        <v>848</v>
-      </c>
-      <c r="AN28" t="n">
-        <v>1474</v>
-      </c>
-      <c r="AO28" t="n">
-        <v>476</v>
-      </c>
-      <c r="AP28" t="n">
-        <v>154</v>
-      </c>
-      <c r="AQ28" t="n">
-        <v>151</v>
-      </c>
-      <c r="AR28" t="n">
-        <v>150</v>
-      </c>
-      <c r="AS28" t="n">
-        <v>94</v>
-      </c>
-      <c r="AT28" t="n">
-        <v>110</v>
-      </c>
-      <c r="AU28" t="n">
-        <v>163</v>
-      </c>
-      <c r="AV28" t="n">
-        <v>175</v>
-      </c>
-      <c r="AW28" t="n">
-        <v>79</v>
-      </c>
-      <c r="AX28" t="n">
-        <v>96</v>
       </c>
     </row>
     <row r="29">
@@ -4880,121 +3332,67 @@
         <v>3641</v>
       </c>
       <c r="L29" t="n">
-        <v>225596.992</v>
+        <v>9239</v>
       </c>
       <c r="M29" t="n">
-        <v>9239</v>
+        <v>11690</v>
       </c>
       <c r="N29" t="n">
-        <v>11690</v>
+        <v>14866</v>
       </c>
       <c r="O29" t="n">
-        <v>14866</v>
+        <v>16534</v>
       </c>
       <c r="P29" t="n">
-        <v>16534</v>
+        <v>15327</v>
       </c>
       <c r="Q29" t="n">
-        <v>15327</v>
+        <v>12391</v>
       </c>
       <c r="R29" t="n">
-        <v>12391</v>
+        <v>12871</v>
       </c>
       <c r="S29" t="n">
-        <v>12871</v>
+        <v>19662</v>
       </c>
       <c r="T29" t="n">
-        <v>19662</v>
+        <v>16694</v>
       </c>
       <c r="U29" t="n">
-        <v>16694</v>
+        <v>18274</v>
       </c>
       <c r="V29" t="n">
-        <v>18274</v>
+        <v>16610</v>
       </c>
       <c r="W29" t="n">
-        <v>16610</v>
+        <v>20348</v>
       </c>
       <c r="X29" t="n">
-        <v>20348</v>
+        <v>16533</v>
       </c>
       <c r="Y29" t="n">
-        <v>16533</v>
+        <v>17988</v>
       </c>
       <c r="Z29" t="n">
-        <v>17988</v>
+        <v>19466</v>
       </c>
       <c r="AA29" t="n">
-        <v>19466</v>
+        <v>17649</v>
       </c>
       <c r="AB29" t="n">
-        <v>17649</v>
+        <v>17309</v>
       </c>
       <c r="AC29" t="n">
-        <v>17309</v>
+        <v>25281</v>
       </c>
       <c r="AD29" t="n">
-        <v>25281</v>
+        <v>12185</v>
       </c>
       <c r="AE29" t="n">
-        <v>12185</v>
+        <v>15113</v>
       </c>
       <c r="AF29" t="n">
-        <v>15113</v>
-      </c>
-      <c r="AG29" t="n">
         <v>14153</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>695</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>675</v>
-      </c>
-      <c r="AJ29" t="n">
-        <v>548</v>
-      </c>
-      <c r="AK29" t="n">
-        <v>751</v>
-      </c>
-      <c r="AL29" t="n">
-        <v>1223</v>
-      </c>
-      <c r="AM29" t="n">
-        <v>644</v>
-      </c>
-      <c r="AN29" t="n">
-        <v>603</v>
-      </c>
-      <c r="AO29" t="n">
-        <v>469</v>
-      </c>
-      <c r="AP29" t="n">
-        <v>169</v>
-      </c>
-      <c r="AQ29" t="n">
-        <v>170</v>
-      </c>
-      <c r="AR29" t="n">
-        <v>158</v>
-      </c>
-      <c r="AS29" t="n">
-        <v>231</v>
-      </c>
-      <c r="AT29" t="n">
-        <v>380</v>
-      </c>
-      <c r="AU29" t="n">
-        <v>173</v>
-      </c>
-      <c r="AV29" t="n">
-        <v>164</v>
-      </c>
-      <c r="AW29" t="n">
-        <v>1074</v>
-      </c>
-      <c r="AX29" t="n">
-        <v>527</v>
       </c>
     </row>
     <row r="30">
@@ -5034,121 +3432,67 @@
         <v>5602</v>
       </c>
       <c r="L30" t="n">
-        <v>30290</v>
+        <v>5584</v>
       </c>
       <c r="M30" t="n">
-        <v>5584</v>
+        <v>4888</v>
       </c>
       <c r="N30" t="n">
-        <v>4888</v>
+        <v>5298</v>
       </c>
       <c r="O30" t="n">
-        <v>5298</v>
+        <v>7158</v>
       </c>
       <c r="P30" t="n">
-        <v>7158</v>
+        <v>9618</v>
       </c>
       <c r="Q30" t="n">
-        <v>9618</v>
+        <v>10678</v>
       </c>
       <c r="R30" t="n">
-        <v>10678</v>
+        <v>11693</v>
       </c>
       <c r="S30" t="n">
-        <v>11693</v>
+        <v>7400</v>
       </c>
       <c r="T30" t="n">
-        <v>7400</v>
+        <v>9963</v>
       </c>
       <c r="U30" t="n">
-        <v>9963</v>
+        <v>9276</v>
       </c>
       <c r="V30" t="n">
-        <v>9276</v>
+        <v>11358</v>
       </c>
       <c r="W30" t="n">
-        <v>11358</v>
+        <v>7007</v>
       </c>
       <c r="X30" t="n">
-        <v>7007</v>
+        <v>10601</v>
       </c>
       <c r="Y30" t="n">
-        <v>10601</v>
+        <v>8922</v>
       </c>
       <c r="Z30" t="n">
-        <v>8922</v>
+        <v>11973</v>
       </c>
       <c r="AA30" t="n">
-        <v>11973</v>
+        <v>8498</v>
       </c>
       <c r="AB30" t="n">
-        <v>8498</v>
+        <v>11171</v>
       </c>
       <c r="AC30" t="n">
-        <v>11171</v>
+        <v>19433</v>
       </c>
       <c r="AD30" t="n">
-        <v>19433</v>
+        <v>17770</v>
       </c>
       <c r="AE30" t="n">
-        <v>17770</v>
+        <v>10925</v>
       </c>
       <c r="AF30" t="n">
-        <v>10925</v>
-      </c>
-      <c r="AG30" t="n">
         <v>12896</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>639</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>1034</v>
-      </c>
-      <c r="AJ30" t="n">
-        <v>1302</v>
-      </c>
-      <c r="AK30" t="n">
-        <v>681</v>
-      </c>
-      <c r="AL30" t="n">
-        <v>721</v>
-      </c>
-      <c r="AM30" t="n">
-        <v>711</v>
-      </c>
-      <c r="AN30" t="n">
-        <v>726</v>
-      </c>
-      <c r="AO30" t="n">
-        <v>2292</v>
-      </c>
-      <c r="AP30" t="n">
-        <v>1938</v>
-      </c>
-      <c r="AQ30" t="n">
-        <v>453</v>
-      </c>
-      <c r="AR30" t="n">
-        <v>543</v>
-      </c>
-      <c r="AS30" t="n">
-        <v>122</v>
-      </c>
-      <c r="AT30" t="n">
-        <v>130</v>
-      </c>
-      <c r="AU30" t="n">
-        <v>248</v>
-      </c>
-      <c r="AV30" t="n">
-        <v>409</v>
-      </c>
-      <c r="AW30" t="n">
-        <v>185</v>
-      </c>
-      <c r="AX30" t="n">
-        <v>114</v>
       </c>
     </row>
     <row r="31">
@@ -5188,121 +3532,67 @@
         <v>3123</v>
       </c>
       <c r="L31" t="n">
-        <v>122816</v>
+        <v>6391</v>
       </c>
       <c r="M31" t="n">
-        <v>6391</v>
+        <v>9111</v>
       </c>
       <c r="N31" t="n">
-        <v>9111</v>
+        <v>10156</v>
       </c>
       <c r="O31" t="n">
-        <v>10156</v>
+        <v>19903</v>
       </c>
       <c r="P31" t="n">
-        <v>19903</v>
+        <v>57152</v>
       </c>
       <c r="Q31" t="n">
-        <v>57152</v>
+        <v>55402</v>
       </c>
       <c r="R31" t="n">
-        <v>55402</v>
+        <v>123330</v>
       </c>
       <c r="S31" t="n">
-        <v>123330</v>
+        <v>102419</v>
       </c>
       <c r="T31" t="n">
-        <v>102419</v>
+        <v>114835</v>
       </c>
       <c r="U31" t="n">
-        <v>114835</v>
+        <v>127111</v>
       </c>
       <c r="V31" t="n">
-        <v>127111</v>
+        <v>144456.992</v>
       </c>
       <c r="W31" t="n">
-        <v>144456.992</v>
+        <v>127100</v>
       </c>
       <c r="X31" t="n">
-        <v>127100</v>
+        <v>112862</v>
       </c>
       <c r="Y31" t="n">
-        <v>112862</v>
+        <v>109095</v>
       </c>
       <c r="Z31" t="n">
-        <v>109095</v>
+        <v>107888</v>
       </c>
       <c r="AA31" t="n">
-        <v>107888</v>
+        <v>92115</v>
       </c>
       <c r="AB31" t="n">
-        <v>92115</v>
+        <v>107765</v>
       </c>
       <c r="AC31" t="n">
-        <v>107765</v>
+        <v>103321</v>
       </c>
       <c r="AD31" t="n">
-        <v>103321</v>
+        <v>38612</v>
       </c>
       <c r="AE31" t="n">
-        <v>38612</v>
+        <v>111214</v>
       </c>
       <c r="AF31" t="n">
-        <v>111214</v>
-      </c>
-      <c r="AG31" t="n">
         <v>107407</v>
-      </c>
-      <c r="AH31" t="n">
-        <v>52136</v>
-      </c>
-      <c r="AI31" t="n">
-        <v>51942</v>
-      </c>
-      <c r="AJ31" t="n">
-        <v>59379</v>
-      </c>
-      <c r="AK31" t="n">
-        <v>16770</v>
-      </c>
-      <c r="AL31" t="n">
-        <v>15639</v>
-      </c>
-      <c r="AM31" t="n">
-        <v>25018</v>
-      </c>
-      <c r="AN31" t="n">
-        <v>30451</v>
-      </c>
-      <c r="AO31" t="n">
-        <v>14841</v>
-      </c>
-      <c r="AP31" t="n">
-        <v>11129</v>
-      </c>
-      <c r="AQ31" t="n">
-        <v>7420</v>
-      </c>
-      <c r="AR31" t="n">
-        <v>3710</v>
-      </c>
-      <c r="AS31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX31" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -5342,7 +3632,7 @@
         <v>1937</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>1937</v>
       </c>
       <c r="M32" t="n">
         <v>1937</v>
@@ -5351,7 +3641,7 @@
         <v>1937</v>
       </c>
       <c r="O32" t="n">
-        <v>1937</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -5402,60 +3692,6 @@
         <v>0</v>
       </c>
       <c r="AF32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH32" t="n">
-        <v>3782</v>
-      </c>
-      <c r="AI32" t="n">
-        <v>3025</v>
-      </c>
-      <c r="AJ32" t="n">
-        <v>2952</v>
-      </c>
-      <c r="AK32" t="n">
-        <v>3035</v>
-      </c>
-      <c r="AL32" t="n">
-        <v>2747</v>
-      </c>
-      <c r="AM32" t="n">
-        <v>2364</v>
-      </c>
-      <c r="AN32" t="n">
-        <v>2094</v>
-      </c>
-      <c r="AO32" t="n">
-        <v>1108</v>
-      </c>
-      <c r="AP32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5496,7 +3732,7 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>12815</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -5556,60 +3792,6 @@
         <v>0</v>
       </c>
       <c r="AF33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5650,121 +3832,67 @@
         <v>7678</v>
       </c>
       <c r="L34" t="n">
-        <v>54184</v>
+        <v>20060</v>
       </c>
       <c r="M34" t="n">
-        <v>20060</v>
+        <v>21740</v>
       </c>
       <c r="N34" t="n">
-        <v>21740</v>
+        <v>26412</v>
       </c>
       <c r="O34" t="n">
-        <v>26412</v>
+        <v>18030</v>
       </c>
       <c r="P34" t="n">
-        <v>18030</v>
+        <v>12660</v>
       </c>
       <c r="Q34" t="n">
-        <v>12660</v>
+        <v>4603</v>
       </c>
       <c r="R34" t="n">
-        <v>4603</v>
+        <v>3533</v>
       </c>
       <c r="S34" t="n">
-        <v>3533</v>
+        <v>9889</v>
       </c>
       <c r="T34" t="n">
-        <v>9889</v>
+        <v>8693</v>
       </c>
       <c r="U34" t="n">
-        <v>8693</v>
+        <v>12657</v>
       </c>
       <c r="V34" t="n">
-        <v>12657</v>
+        <v>10541</v>
       </c>
       <c r="W34" t="n">
-        <v>10541</v>
+        <v>6781</v>
       </c>
       <c r="X34" t="n">
-        <v>6781</v>
+        <v>5803</v>
       </c>
       <c r="Y34" t="n">
-        <v>5803</v>
+        <v>14468</v>
       </c>
       <c r="Z34" t="n">
-        <v>14468</v>
+        <v>12720</v>
       </c>
       <c r="AA34" t="n">
-        <v>12720</v>
+        <v>17922</v>
       </c>
       <c r="AB34" t="n">
-        <v>17922</v>
+        <v>24191</v>
       </c>
       <c r="AC34" t="n">
-        <v>24191</v>
+        <v>35136</v>
       </c>
       <c r="AD34" t="n">
-        <v>35136</v>
+        <v>17691</v>
       </c>
       <c r="AE34" t="n">
-        <v>17691</v>
+        <v>27084</v>
       </c>
       <c r="AF34" t="n">
-        <v>27084</v>
-      </c>
-      <c r="AG34" t="n">
         <v>25868</v>
-      </c>
-      <c r="AH34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX34" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -5804,7 +3932,7 @@
         <v>5796</v>
       </c>
       <c r="L35" t="n">
-        <v>116679</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -5825,19 +3953,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>1905</v>
       </c>
       <c r="T35" t="n">
+        <v>1631</v>
+      </c>
+      <c r="U35" t="n">
         <v>1905</v>
       </c>
-      <c r="U35" t="n">
-        <v>1631</v>
-      </c>
       <c r="V35" t="n">
-        <v>1905</v>
+        <v>3663</v>
       </c>
       <c r="W35" t="n">
-        <v>3663</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -5865,60 +3993,6 @@
       </c>
       <c r="AF35" t="n">
         <v>0</v>
-      </c>
-      <c r="AG35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH35" t="n">
-        <v>17627</v>
-      </c>
-      <c r="AI35" t="n">
-        <v>15789</v>
-      </c>
-      <c r="AJ35" t="n">
-        <v>25688</v>
-      </c>
-      <c r="AK35" t="n">
-        <v>24203</v>
-      </c>
-      <c r="AL35" t="n">
-        <v>8699</v>
-      </c>
-      <c r="AM35" t="n">
-        <v>7430</v>
-      </c>
-      <c r="AN35" t="n">
-        <v>6251</v>
-      </c>
-      <c r="AO35" t="n">
-        <v>4278</v>
-      </c>
-      <c r="AP35" t="n">
-        <v>4408</v>
-      </c>
-      <c r="AQ35" t="n">
-        <v>13781</v>
-      </c>
-      <c r="AR35" t="n">
-        <v>3356</v>
-      </c>
-      <c r="AS35" t="n">
-        <v>2660</v>
-      </c>
-      <c r="AT35" t="n">
-        <v>2009</v>
-      </c>
-      <c r="AU35" t="n">
-        <v>4232</v>
-      </c>
-      <c r="AV35" t="n">
-        <v>4249</v>
-      </c>
-      <c r="AW35" t="n">
-        <v>2750</v>
-      </c>
-      <c r="AX35" t="n">
-        <v>3391</v>
       </c>
     </row>
     <row r="36">
@@ -6020,60 +4094,6 @@
       <c r="AF36" t="n">
         <v>0</v>
       </c>
-      <c r="AG36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX36" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -6112,121 +4132,67 @@
         <v>69068</v>
       </c>
       <c r="L37" t="n">
-        <v>235075.008</v>
+        <v>104239</v>
       </c>
       <c r="M37" t="n">
-        <v>104239</v>
+        <v>100730</v>
       </c>
       <c r="N37" t="n">
-        <v>100730</v>
+        <v>98187</v>
       </c>
       <c r="O37" t="n">
-        <v>98187</v>
+        <v>95885</v>
       </c>
       <c r="P37" t="n">
-        <v>95885</v>
+        <v>204142</v>
       </c>
       <c r="Q37" t="n">
-        <v>204142</v>
+        <v>127732</v>
       </c>
       <c r="R37" t="n">
-        <v>127732</v>
+        <v>130865</v>
       </c>
       <c r="S37" t="n">
-        <v>130865</v>
+        <v>134076</v>
       </c>
       <c r="T37" t="n">
-        <v>134076</v>
+        <v>139544</v>
       </c>
       <c r="U37" t="n">
-        <v>139544</v>
+        <v>140571.008</v>
       </c>
       <c r="V37" t="n">
-        <v>140571.008</v>
+        <v>136854</v>
       </c>
       <c r="W37" t="n">
-        <v>136854</v>
+        <v>199635.008</v>
       </c>
       <c r="X37" t="n">
-        <v>199635.008</v>
+        <v>195743.008</v>
       </c>
       <c r="Y37" t="n">
-        <v>195743.008</v>
+        <v>194764.992</v>
       </c>
       <c r="Z37" t="n">
-        <v>194764.992</v>
+        <v>193108.992</v>
       </c>
       <c r="AA37" t="n">
-        <v>193108.992</v>
+        <v>192868.992</v>
       </c>
       <c r="AB37" t="n">
-        <v>192868.992</v>
+        <v>186599.008</v>
       </c>
       <c r="AC37" t="n">
-        <v>186599.008</v>
+        <v>222911.008</v>
       </c>
       <c r="AD37" t="n">
-        <v>222911.008</v>
+        <v>211002</v>
       </c>
       <c r="AE37" t="n">
-        <v>211002</v>
+        <v>141672.992</v>
       </c>
       <c r="AF37" t="n">
-        <v>141672.992</v>
-      </c>
-      <c r="AG37" t="n">
         <v>132594</v>
-      </c>
-      <c r="AH37" t="n">
-        <v>76428</v>
-      </c>
-      <c r="AI37" t="n">
-        <v>58184</v>
-      </c>
-      <c r="AJ37" t="n">
-        <v>50426</v>
-      </c>
-      <c r="AK37" t="n">
-        <v>51100</v>
-      </c>
-      <c r="AL37" t="n">
-        <v>47215</v>
-      </c>
-      <c r="AM37" t="n">
-        <v>41915</v>
-      </c>
-      <c r="AN37" t="n">
-        <v>38547</v>
-      </c>
-      <c r="AO37" t="n">
-        <v>34110</v>
-      </c>
-      <c r="AP37" t="n">
-        <v>34729</v>
-      </c>
-      <c r="AQ37" t="n">
-        <v>29901</v>
-      </c>
-      <c r="AR37" t="n">
-        <v>32049</v>
-      </c>
-      <c r="AS37" t="n">
-        <v>31813</v>
-      </c>
-      <c r="AT37" t="n">
-        <v>32545</v>
-      </c>
-      <c r="AU37" t="n">
-        <v>30348</v>
-      </c>
-      <c r="AV37" t="n">
-        <v>24801</v>
-      </c>
-      <c r="AW37" t="n">
-        <v>25799</v>
-      </c>
-      <c r="AX37" t="n">
-        <v>23907</v>
       </c>
     </row>
     <row r="38">
@@ -6266,121 +4232,67 @@
         <v>61314</v>
       </c>
       <c r="L38" t="n">
-        <v>126582</v>
+        <v>100188</v>
       </c>
       <c r="M38" t="n">
-        <v>100188</v>
+        <v>99881</v>
       </c>
       <c r="N38" t="n">
-        <v>99881</v>
+        <v>97121</v>
       </c>
       <c r="O38" t="n">
-        <v>97121</v>
+        <v>94803</v>
       </c>
       <c r="P38" t="n">
-        <v>94803</v>
+        <v>90473</v>
       </c>
       <c r="Q38" t="n">
-        <v>90473</v>
+        <v>90068</v>
       </c>
       <c r="R38" t="n">
-        <v>90068</v>
+        <v>91973</v>
       </c>
       <c r="S38" t="n">
-        <v>91973</v>
+        <v>133228</v>
       </c>
       <c r="T38" t="n">
-        <v>133228</v>
+        <v>137016</v>
       </c>
       <c r="U38" t="n">
-        <v>137016</v>
+        <v>137192.992</v>
       </c>
       <c r="V38" t="n">
-        <v>137192.992</v>
+        <v>132189</v>
       </c>
       <c r="W38" t="n">
-        <v>132189</v>
+        <v>184542</v>
       </c>
       <c r="X38" t="n">
-        <v>184542</v>
+        <v>181110</v>
       </c>
       <c r="Y38" t="n">
-        <v>181110</v>
+        <v>171340</v>
       </c>
       <c r="Z38" t="n">
-        <v>171340</v>
+        <v>171854</v>
       </c>
       <c r="AA38" t="n">
-        <v>171854</v>
+        <v>177166</v>
       </c>
       <c r="AB38" t="n">
-        <v>177166</v>
+        <v>170580</v>
       </c>
       <c r="AC38" t="n">
-        <v>170580</v>
+        <v>208762</v>
       </c>
       <c r="AD38" t="n">
-        <v>208762</v>
+        <v>190816.992</v>
       </c>
       <c r="AE38" t="n">
-        <v>190816.992</v>
+        <v>112665</v>
       </c>
       <c r="AF38" t="n">
-        <v>112665</v>
-      </c>
-      <c r="AG38" t="n">
         <v>104747</v>
-      </c>
-      <c r="AH38" t="n">
-        <v>26642</v>
-      </c>
-      <c r="AI38" t="n">
-        <v>22270</v>
-      </c>
-      <c r="AJ38" t="n">
-        <v>18519</v>
-      </c>
-      <c r="AK38" t="n">
-        <v>14815</v>
-      </c>
-      <c r="AL38" t="n">
-        <v>11111</v>
-      </c>
-      <c r="AM38" t="n">
-        <v>7407</v>
-      </c>
-      <c r="AN38" t="n">
-        <v>3704</v>
-      </c>
-      <c r="AO38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX38" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -6456,85 +4368,31 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>1187</v>
       </c>
       <c r="Y39" t="n">
-        <v>1187</v>
+        <v>0</v>
       </c>
       <c r="Z39" t="n">
         <v>0</v>
       </c>
       <c r="AA39" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AB39" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AC39" t="n">
         <v>0</v>
       </c>
       <c r="AD39" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="AE39" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AF39" t="n">
-        <v>36</v>
-      </c>
-      <c r="AG39" t="n">
         <v>136</v>
-      </c>
-      <c r="AH39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX39" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -6574,121 +4432,67 @@
         <v>7259</v>
       </c>
       <c r="L40" t="n">
-        <v>108493</v>
+        <v>639</v>
       </c>
       <c r="M40" t="n">
-        <v>639</v>
+        <v>465</v>
       </c>
       <c r="N40" t="n">
-        <v>465</v>
+        <v>487</v>
       </c>
       <c r="O40" t="n">
-        <v>487</v>
+        <v>896</v>
       </c>
       <c r="P40" t="n">
-        <v>896</v>
+        <v>100012</v>
       </c>
       <c r="Q40" t="n">
-        <v>100012</v>
+        <v>24007</v>
       </c>
       <c r="R40" t="n">
-        <v>24007</v>
+        <v>25110</v>
       </c>
       <c r="S40" t="n">
-        <v>25110</v>
+        <v>848</v>
       </c>
       <c r="T40" t="n">
-        <v>848</v>
+        <v>2528</v>
       </c>
       <c r="U40" t="n">
-        <v>2528</v>
+        <v>3378</v>
       </c>
       <c r="V40" t="n">
-        <v>3378</v>
+        <v>4665</v>
       </c>
       <c r="W40" t="n">
-        <v>4665</v>
+        <v>8701</v>
       </c>
       <c r="X40" t="n">
-        <v>8701</v>
+        <v>7054</v>
       </c>
       <c r="Y40" t="n">
-        <v>7054</v>
+        <v>13736</v>
       </c>
       <c r="Z40" t="n">
-        <v>13736</v>
+        <v>11839</v>
       </c>
       <c r="AA40" t="n">
-        <v>11839</v>
+        <v>10019</v>
       </c>
       <c r="AB40" t="n">
-        <v>10019</v>
+        <v>11097</v>
       </c>
       <c r="AC40" t="n">
-        <v>11097</v>
+        <v>9246</v>
       </c>
       <c r="AD40" t="n">
-        <v>9246</v>
+        <v>14846</v>
       </c>
       <c r="AE40" t="n">
-        <v>14846</v>
+        <v>16888</v>
       </c>
       <c r="AF40" t="n">
-        <v>16888</v>
-      </c>
-      <c r="AG40" t="n">
         <v>22648</v>
-      </c>
-      <c r="AH40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX40" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -6740,16 +4544,16 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>13657</v>
       </c>
       <c r="Q41" t="n">
         <v>13657</v>
       </c>
       <c r="R41" t="n">
-        <v>13657</v>
+        <v>13782</v>
       </c>
       <c r="S41" t="n">
-        <v>13782</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -6767,82 +4571,28 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>3016</v>
       </c>
       <c r="Z41" t="n">
-        <v>3016</v>
+        <v>3024</v>
       </c>
       <c r="AA41" t="n">
-        <v>3024</v>
+        <v>2868</v>
       </c>
       <c r="AB41" t="n">
-        <v>2868</v>
+        <v>2878</v>
       </c>
       <c r="AC41" t="n">
-        <v>2878</v>
+        <v>2859</v>
       </c>
       <c r="AD41" t="n">
-        <v>2859</v>
+        <v>2834</v>
       </c>
       <c r="AE41" t="n">
-        <v>2834</v>
+        <v>2810</v>
       </c>
       <c r="AF41" t="n">
-        <v>2810</v>
-      </c>
-      <c r="AG41" t="n">
         <v>2781</v>
-      </c>
-      <c r="AH41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX41" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -6882,16 +4632,16 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>3412</v>
       </c>
       <c r="M42" t="n">
-        <v>3412</v>
+        <v>384</v>
       </c>
       <c r="N42" t="n">
-        <v>384</v>
+        <v>579</v>
       </c>
       <c r="O42" t="n">
-        <v>579</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -6942,60 +4692,6 @@
         <v>0</v>
       </c>
       <c r="AF42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7045,10 +4741,10 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="P43" t="n">
-        <v>186</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -7069,88 +4765,34 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>6392</v>
       </c>
       <c r="X43" t="n">
         <v>6392</v>
       </c>
       <c r="Y43" t="n">
+        <v>6673</v>
+      </c>
+      <c r="Z43" t="n">
         <v>6392</v>
       </c>
-      <c r="Z43" t="n">
-        <v>6673</v>
-      </c>
       <c r="AA43" t="n">
-        <v>6392</v>
+        <v>2793</v>
       </c>
       <c r="AB43" t="n">
-        <v>2793</v>
+        <v>2044</v>
       </c>
       <c r="AC43" t="n">
         <v>2044</v>
       </c>
       <c r="AD43" t="n">
-        <v>2044</v>
+        <v>2468</v>
       </c>
       <c r="AE43" t="n">
-        <v>2468</v>
+        <v>9274</v>
       </c>
       <c r="AF43" t="n">
-        <v>9274</v>
-      </c>
-      <c r="AG43" t="n">
         <v>2282</v>
-      </c>
-      <c r="AH43" t="n">
-        <v>49786</v>
-      </c>
-      <c r="AI43" t="n">
-        <v>35914</v>
-      </c>
-      <c r="AJ43" t="n">
-        <v>31907</v>
-      </c>
-      <c r="AK43" t="n">
-        <v>36285</v>
-      </c>
-      <c r="AL43" t="n">
-        <v>36104</v>
-      </c>
-      <c r="AM43" t="n">
-        <v>34508</v>
-      </c>
-      <c r="AN43" t="n">
-        <v>34843</v>
-      </c>
-      <c r="AO43" t="n">
-        <v>34110</v>
-      </c>
-      <c r="AP43" t="n">
-        <v>34729</v>
-      </c>
-      <c r="AQ43" t="n">
-        <v>29901</v>
-      </c>
-      <c r="AR43" t="n">
-        <v>32049</v>
-      </c>
-      <c r="AS43" t="n">
-        <v>31813</v>
-      </c>
-      <c r="AT43" t="n">
-        <v>32545</v>
-      </c>
-      <c r="AU43" t="n">
-        <v>30348</v>
-      </c>
-      <c r="AV43" t="n">
-        <v>24801</v>
-      </c>
-      <c r="AW43" t="n">
-        <v>25799</v>
-      </c>
-      <c r="AX43" t="n">
-        <v>23907</v>
       </c>
     </row>
     <row r="44">
@@ -7252,60 +4894,6 @@
       <c r="AF44" t="n">
         <v>0</v>
       </c>
-      <c r="AG44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX44" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -7406,60 +4994,6 @@
       <c r="AF45" t="n">
         <v>0</v>
       </c>
-      <c r="AG45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX45" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -7498,121 +5032,67 @@
         <v>5618</v>
       </c>
       <c r="L46" t="n">
-        <v>199</v>
+        <v>7300</v>
       </c>
       <c r="M46" t="n">
-        <v>7300</v>
+        <v>11769</v>
       </c>
       <c r="N46" t="n">
-        <v>11769</v>
+        <v>11065</v>
       </c>
       <c r="O46" t="n">
-        <v>11065</v>
+        <v>9982</v>
       </c>
       <c r="P46" t="n">
-        <v>9982</v>
+        <v>9757</v>
       </c>
       <c r="Q46" t="n">
-        <v>9757</v>
+        <v>6461</v>
       </c>
       <c r="R46" t="n">
-        <v>6461</v>
+        <v>6079</v>
       </c>
       <c r="S46" t="n">
-        <v>6079</v>
+        <v>5934</v>
       </c>
       <c r="T46" t="n">
-        <v>5934</v>
+        <v>5567</v>
       </c>
       <c r="U46" t="n">
-        <v>5567</v>
+        <v>4217</v>
       </c>
       <c r="V46" t="n">
-        <v>4217</v>
+        <v>4201</v>
       </c>
       <c r="W46" t="n">
-        <v>4201</v>
+        <v>6487</v>
       </c>
       <c r="X46" t="n">
-        <v>6487</v>
+        <v>6811</v>
       </c>
       <c r="Y46" t="n">
-        <v>6811</v>
+        <v>8821</v>
       </c>
       <c r="Z46" t="n">
-        <v>8821</v>
+        <v>8338</v>
       </c>
       <c r="AA46" t="n">
-        <v>8338</v>
+        <v>5432</v>
       </c>
       <c r="AB46" t="n">
-        <v>5432</v>
+        <v>5439</v>
       </c>
       <c r="AC46" t="n">
-        <v>5439</v>
+        <v>5451</v>
       </c>
       <c r="AD46" t="n">
-        <v>5451</v>
+        <v>5479</v>
       </c>
       <c r="AE46" t="n">
-        <v>5479</v>
+        <v>5480</v>
       </c>
       <c r="AF46" t="n">
-        <v>5480</v>
-      </c>
-      <c r="AG46" t="n">
         <v>5452</v>
-      </c>
-      <c r="AH46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX46" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -7652,121 +5132,67 @@
         <v>635379.008</v>
       </c>
       <c r="L47" t="n">
-        <v>496081.984</v>
+        <v>627297.024</v>
       </c>
       <c r="M47" t="n">
-        <v>627297.024</v>
+        <v>628265.9840000001</v>
       </c>
       <c r="N47" t="n">
-        <v>628265.9840000001</v>
+        <v>621449.9840000001</v>
       </c>
       <c r="O47" t="n">
-        <v>621449.9840000001</v>
+        <v>628216.976</v>
       </c>
       <c r="P47" t="n">
-        <v>628216.976</v>
+        <v>636561.0159999999</v>
       </c>
       <c r="Q47" t="n">
-        <v>636561.0159999999</v>
+        <v>723588.9840000001</v>
       </c>
       <c r="R47" t="n">
-        <v>723588.9840000001</v>
+        <v>720962.9840000001</v>
       </c>
       <c r="S47" t="n">
-        <v>720962.9840000001</v>
+        <v>724944.976</v>
       </c>
       <c r="T47" t="n">
-        <v>724944.976</v>
+        <v>722711.0159999999</v>
       </c>
       <c r="U47" t="n">
-        <v>722711.0159999999</v>
+        <v>753533.976</v>
       </c>
       <c r="V47" t="n">
-        <v>753533.976</v>
+        <v>753002.968</v>
       </c>
       <c r="W47" t="n">
-        <v>753002.968</v>
+        <v>755466.024</v>
       </c>
       <c r="X47" t="n">
-        <v>755466.024</v>
+        <v>753211.976</v>
       </c>
       <c r="Y47" t="n">
-        <v>753211.976</v>
+        <v>1079896.056</v>
       </c>
       <c r="Z47" t="n">
-        <v>1079896.056</v>
+        <v>1079477.04</v>
       </c>
       <c r="AA47" t="n">
-        <v>1079477.04</v>
+        <v>1082449.984</v>
       </c>
       <c r="AB47" t="n">
-        <v>1082449.984</v>
+        <v>1073329</v>
       </c>
       <c r="AC47" t="n">
-        <v>1073329</v>
+        <v>1070409.992</v>
       </c>
       <c r="AD47" t="n">
-        <v>1070409.992</v>
+        <v>1082107.048</v>
       </c>
       <c r="AE47" t="n">
-        <v>1082107.048</v>
+        <v>1087898.944</v>
       </c>
       <c r="AF47" t="n">
-        <v>1087898.944</v>
-      </c>
-      <c r="AG47" t="n">
         <v>1077601.952</v>
-      </c>
-      <c r="AH47" t="n">
-        <v>87802</v>
-      </c>
-      <c r="AI47" t="n">
-        <v>84653</v>
-      </c>
-      <c r="AJ47" t="n">
-        <v>77049</v>
-      </c>
-      <c r="AK47" t="n">
-        <v>64906</v>
-      </c>
-      <c r="AL47" t="n">
-        <v>56928</v>
-      </c>
-      <c r="AM47" t="n">
-        <v>59685</v>
-      </c>
-      <c r="AN47" t="n">
-        <v>56349</v>
-      </c>
-      <c r="AO47" t="n">
-        <v>51623</v>
-      </c>
-      <c r="AP47" t="n">
-        <v>49830</v>
-      </c>
-      <c r="AQ47" t="n">
-        <v>39151</v>
-      </c>
-      <c r="AR47" t="n">
-        <v>33717</v>
-      </c>
-      <c r="AS47" t="n">
-        <v>32333</v>
-      </c>
-      <c r="AT47" t="n">
-        <v>32782</v>
-      </c>
-      <c r="AU47" t="n">
-        <v>30234</v>
-      </c>
-      <c r="AV47" t="n">
-        <v>26641</v>
-      </c>
-      <c r="AW47" t="n">
-        <v>22311</v>
-      </c>
-      <c r="AX47" t="n">
-        <v>20143</v>
       </c>
     </row>
     <row r="48">
@@ -7806,7 +5232,7 @@
         <v>801019.008</v>
       </c>
       <c r="L48" t="n">
-        <v>250000</v>
+        <v>640774.976</v>
       </c>
       <c r="M48" t="n">
         <v>640774.976</v>
@@ -7821,7 +5247,7 @@
         <v>640774.976</v>
       </c>
       <c r="Q48" t="n">
-        <v>640774.976</v>
+        <v>725774.976</v>
       </c>
       <c r="R48" t="n">
         <v>725774.976</v>
@@ -7833,7 +5259,7 @@
         <v>725774.976</v>
       </c>
       <c r="U48" t="n">
-        <v>725774.976</v>
+        <v>760275.008</v>
       </c>
       <c r="V48" t="n">
         <v>760275.008</v>
@@ -7845,10 +5271,10 @@
         <v>760275.008</v>
       </c>
       <c r="Y48" t="n">
-        <v>760275.008</v>
+        <v>1098919.936</v>
       </c>
       <c r="Z48" t="n">
-        <v>1098919.936</v>
+        <v>1094998.016</v>
       </c>
       <c r="AA48" t="n">
         <v>1094998.016</v>
@@ -7867,60 +5293,6 @@
       </c>
       <c r="AF48" t="n">
         <v>1094998.016</v>
-      </c>
-      <c r="AG48" t="n">
-        <v>1094998.016</v>
-      </c>
-      <c r="AH48" t="n">
-        <v>271524.992</v>
-      </c>
-      <c r="AI48" t="n">
-        <v>271524.992</v>
-      </c>
-      <c r="AJ48" t="n">
-        <v>271524.992</v>
-      </c>
-      <c r="AK48" t="n">
-        <v>271524.992</v>
-      </c>
-      <c r="AL48" t="n">
-        <v>271524.992</v>
-      </c>
-      <c r="AM48" t="n">
-        <v>271524.992</v>
-      </c>
-      <c r="AN48" t="n">
-        <v>271524.992</v>
-      </c>
-      <c r="AO48" t="n">
-        <v>271524.992</v>
-      </c>
-      <c r="AP48" t="n">
-        <v>56348</v>
-      </c>
-      <c r="AQ48" t="n">
-        <v>56348</v>
-      </c>
-      <c r="AR48" t="n">
-        <v>56348</v>
-      </c>
-      <c r="AS48" t="n">
-        <v>56348</v>
-      </c>
-      <c r="AT48" t="n">
-        <v>56348</v>
-      </c>
-      <c r="AU48" t="n">
-        <v>56348</v>
-      </c>
-      <c r="AV48" t="n">
-        <v>56348</v>
-      </c>
-      <c r="AW48" t="n">
-        <v>56348</v>
-      </c>
-      <c r="AX48" t="n">
-        <v>56348</v>
       </c>
     </row>
     <row r="49">
@@ -7960,121 +5332,67 @@
         <v>90312</v>
       </c>
       <c r="L49" t="n">
-        <v>37471</v>
+        <v>81976</v>
       </c>
       <c r="M49" t="n">
-        <v>81976</v>
+        <v>81982</v>
       </c>
       <c r="N49" t="n">
-        <v>81982</v>
+        <v>83093</v>
       </c>
       <c r="O49" t="n">
-        <v>83093</v>
+        <v>83408</v>
       </c>
       <c r="P49" t="n">
-        <v>83408</v>
+        <v>85487</v>
       </c>
       <c r="Q49" t="n">
-        <v>85487</v>
+        <v>86795</v>
       </c>
       <c r="R49" t="n">
-        <v>86795</v>
+        <v>85177</v>
       </c>
       <c r="S49" t="n">
-        <v>85177</v>
+        <v>85492</v>
       </c>
       <c r="T49" t="n">
-        <v>85492</v>
+        <v>85807</v>
       </c>
       <c r="U49" t="n">
-        <v>85807</v>
+        <v>87105</v>
       </c>
       <c r="V49" t="n">
-        <v>87105</v>
+        <v>87525</v>
       </c>
       <c r="W49" t="n">
-        <v>87525</v>
+        <v>87840</v>
       </c>
       <c r="X49" t="n">
-        <v>87840</v>
+        <v>89505</v>
       </c>
       <c r="Y49" t="n">
-        <v>89505</v>
+        <v>89611</v>
       </c>
       <c r="Z49" t="n">
-        <v>89611</v>
+        <v>89800</v>
       </c>
       <c r="AA49" t="n">
-        <v>89800</v>
+        <v>86434</v>
       </c>
       <c r="AB49" t="n">
-        <v>86434</v>
+        <v>79932</v>
       </c>
       <c r="AC49" t="n">
-        <v>79932</v>
+        <v>81591</v>
       </c>
       <c r="AD49" t="n">
-        <v>81591</v>
+        <v>86964</v>
       </c>
       <c r="AE49" t="n">
-        <v>86964</v>
+        <v>87948</v>
       </c>
       <c r="AF49" t="n">
-        <v>87948</v>
-      </c>
-      <c r="AG49" t="n">
         <v>88510</v>
-      </c>
-      <c r="AH49" t="n">
-        <v>6017</v>
-      </c>
-      <c r="AI49" t="n">
-        <v>6017</v>
-      </c>
-      <c r="AJ49" t="n">
-        <v>-6555</v>
-      </c>
-      <c r="AK49" t="n">
-        <v>-6555</v>
-      </c>
-      <c r="AL49" t="n">
-        <v>-12480</v>
-      </c>
-      <c r="AM49" t="n">
-        <v>-12480</v>
-      </c>
-      <c r="AN49" t="n">
-        <v>-18180</v>
-      </c>
-      <c r="AO49" t="n">
-        <v>-18181</v>
-      </c>
-      <c r="AP49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX49" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="50">
@@ -8176,60 +5494,6 @@
       <c r="AF50" t="n">
         <v>0</v>
       </c>
-      <c r="AG50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX50" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -8268,7 +5532,7 @@
         <v>-9906</v>
       </c>
       <c r="L51" t="n">
-        <v>210548</v>
+        <v>0</v>
       </c>
       <c r="M51" t="n">
         <v>0</v>
@@ -8328,60 +5592,6 @@
         <v>0</v>
       </c>
       <c r="AF51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8422,121 +5632,67 @@
         <v>-246046</v>
       </c>
       <c r="L52" t="n">
-        <v>0</v>
+        <v>-95454</v>
       </c>
       <c r="M52" t="n">
-        <v>-95454</v>
+        <v>-94491</v>
       </c>
       <c r="N52" t="n">
-        <v>-94491</v>
+        <v>-102418</v>
       </c>
       <c r="O52" t="n">
-        <v>-102418</v>
+        <v>-95966</v>
       </c>
       <c r="P52" t="n">
-        <v>-95966</v>
+        <v>-89701</v>
       </c>
       <c r="Q52" t="n">
-        <v>-89701</v>
+        <v>-88981</v>
       </c>
       <c r="R52" t="n">
-        <v>-88981</v>
+        <v>-89989</v>
       </c>
       <c r="S52" t="n">
-        <v>-89989</v>
+        <v>-86322</v>
       </c>
       <c r="T52" t="n">
-        <v>-86322</v>
+        <v>-88871</v>
       </c>
       <c r="U52" t="n">
-        <v>-88871</v>
+        <v>-93846</v>
       </c>
       <c r="V52" t="n">
-        <v>-93846</v>
+        <v>-94797</v>
       </c>
       <c r="W52" t="n">
-        <v>-94797</v>
+        <v>-92649</v>
       </c>
       <c r="X52" t="n">
-        <v>-92649</v>
+        <v>-96568</v>
       </c>
       <c r="Y52" t="n">
-        <v>-96568</v>
+        <v>-108635</v>
       </c>
       <c r="Z52" t="n">
-        <v>-108635</v>
+        <v>-105321</v>
       </c>
       <c r="AA52" t="n">
-        <v>-105321</v>
+        <v>-98982</v>
       </c>
       <c r="AB52" t="n">
-        <v>-98982</v>
+        <v>-101601</v>
       </c>
       <c r="AC52" t="n">
-        <v>-101601</v>
+        <v>-106179</v>
       </c>
       <c r="AD52" t="n">
-        <v>-106179</v>
+        <v>-99855</v>
       </c>
       <c r="AE52" t="n">
-        <v>-99855</v>
+        <v>-95047</v>
       </c>
       <c r="AF52" t="n">
-        <v>-95047</v>
-      </c>
-      <c r="AG52" t="n">
         <v>-105906</v>
-      </c>
-      <c r="AH52" t="n">
-        <v>-189740</v>
-      </c>
-      <c r="AI52" t="n">
-        <v>-192888.992</v>
-      </c>
-      <c r="AJ52" t="n">
-        <v>-187920.992</v>
-      </c>
-      <c r="AK52" t="n">
-        <v>-200064</v>
-      </c>
-      <c r="AL52" t="n">
-        <v>-202116.992</v>
-      </c>
-      <c r="AM52" t="n">
-        <v>-199360</v>
-      </c>
-      <c r="AN52" t="n">
-        <v>-196996</v>
-      </c>
-      <c r="AO52" t="n">
-        <v>-201720.992</v>
-      </c>
-      <c r="AP52" t="n">
-        <v>-6518</v>
-      </c>
-      <c r="AQ52" t="n">
-        <v>-17197</v>
-      </c>
-      <c r="AR52" t="n">
-        <v>-22631</v>
-      </c>
-      <c r="AS52" t="n">
-        <v>-24015</v>
-      </c>
-      <c r="AT52" t="n">
-        <v>-23566</v>
-      </c>
-      <c r="AU52" t="n">
-        <v>-26114</v>
-      </c>
-      <c r="AV52" t="n">
-        <v>-29707</v>
-      </c>
-      <c r="AW52" t="n">
-        <v>-34037</v>
-      </c>
-      <c r="AX52" t="n">
-        <v>-36207</v>
       </c>
     </row>
     <row r="53">
@@ -8576,7 +5732,7 @@
         <v>0</v>
       </c>
       <c r="L53" t="n">
-        <v>-1937</v>
+        <v>0</v>
       </c>
       <c r="M53" t="n">
         <v>0</v>
@@ -8636,60 +5792,6 @@
         <v>0</v>
       </c>
       <c r="AF53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8792,60 +5894,6 @@
       <c r="AF54" t="n">
         <v>0</v>
       </c>
-      <c r="AG54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX54" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -8946,60 +5994,6 @@
       <c r="AF55" t="n">
         <v>0</v>
       </c>
-      <c r="AG55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX55" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -9100,60 +6094,6 @@
       <c r="AF56" t="n">
         <v>0</v>
       </c>
-      <c r="AG56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX56" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -9192,16 +6132,16 @@
         <v>20216</v>
       </c>
       <c r="L57" t="n">
-        <v>622962.048</v>
+        <v>24327</v>
       </c>
       <c r="M57" t="n">
-        <v>24327</v>
+        <v>32075</v>
       </c>
       <c r="N57" t="n">
-        <v>32075</v>
+        <v>39016</v>
       </c>
       <c r="O57" t="n">
-        <v>39016</v>
+        <v>0</v>
       </c>
       <c r="P57" t="n">
         <v>0</v>
@@ -9252,60 +6192,6 @@
         <v>0</v>
       </c>
       <c r="AF57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9346,16 +6232,16 @@
         <v>-1941</v>
       </c>
       <c r="L58" t="n">
-        <v>-66155.008</v>
+        <v>-2238</v>
       </c>
       <c r="M58" t="n">
-        <v>-2238</v>
+        <v>-3060</v>
       </c>
       <c r="N58" t="n">
-        <v>-3060</v>
+        <v>-3676</v>
       </c>
       <c r="O58" t="n">
-        <v>-3676</v>
+        <v>0</v>
       </c>
       <c r="P58" t="n">
         <v>0</v>
@@ -9406,60 +6292,6 @@
         <v>0</v>
       </c>
       <c r="AF58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9500,121 +6332,67 @@
         <v>18275</v>
       </c>
       <c r="L59" t="n">
-        <v>556806.912</v>
+        <v>22089</v>
       </c>
       <c r="M59" t="n">
-        <v>22089</v>
+        <v>29015</v>
       </c>
       <c r="N59" t="n">
-        <v>29015</v>
+        <v>35340</v>
       </c>
       <c r="O59" t="n">
-        <v>35340</v>
+        <v>38059</v>
       </c>
       <c r="P59" t="n">
-        <v>38059</v>
+        <v>46163</v>
       </c>
       <c r="Q59" t="n">
-        <v>46163</v>
+        <v>37480</v>
       </c>
       <c r="R59" t="n">
-        <v>37480</v>
+        <v>46533</v>
       </c>
       <c r="S59" t="n">
-        <v>46533</v>
+        <v>56755.008</v>
       </c>
       <c r="T59" t="n">
-        <v>56755.008</v>
+        <v>60637</v>
       </c>
       <c r="U59" t="n">
-        <v>60637</v>
+        <v>48662</v>
       </c>
       <c r="V59" t="n">
-        <v>48662</v>
+        <v>59492</v>
       </c>
       <c r="W59" t="n">
-        <v>59492</v>
+        <v>68349.984</v>
       </c>
       <c r="X59" t="n">
-        <v>68349.984</v>
+        <v>61403</v>
       </c>
       <c r="Y59" t="n">
-        <v>61403</v>
+        <v>57144</v>
       </c>
       <c r="Z59" t="n">
-        <v>57144</v>
+        <v>61887</v>
       </c>
       <c r="AA59" t="n">
-        <v>61887</v>
+        <v>83437.008</v>
       </c>
       <c r="AB59" t="n">
-        <v>83437.008</v>
+        <v>67302</v>
       </c>
       <c r="AC59" t="n">
-        <v>67302</v>
+        <v>94781</v>
       </c>
       <c r="AD59" t="n">
-        <v>94781</v>
+        <v>84014</v>
       </c>
       <c r="AE59" t="n">
-        <v>84014</v>
+        <v>81245.008</v>
       </c>
       <c r="AF59" t="n">
-        <v>81245.008</v>
-      </c>
-      <c r="AG59" t="n">
         <v>68479</v>
-      </c>
-      <c r="AH59" t="n">
-        <v>7564</v>
-      </c>
-      <c r="AI59" t="n">
-        <v>7102</v>
-      </c>
-      <c r="AJ59" t="n">
-        <v>3797</v>
-      </c>
-      <c r="AK59" t="n">
-        <v>2598</v>
-      </c>
-      <c r="AL59" t="n">
-        <v>2181</v>
-      </c>
-      <c r="AM59" t="n">
-        <v>1799</v>
-      </c>
-      <c r="AN59" t="n">
-        <v>1299</v>
-      </c>
-      <c r="AO59" t="n">
-        <v>679</v>
-      </c>
-      <c r="AP59" t="n">
-        <v>472</v>
-      </c>
-      <c r="AQ59" t="n">
-        <v>380</v>
-      </c>
-      <c r="AR59" t="n">
-        <v>268</v>
-      </c>
-      <c r="AS59" t="n">
-        <v>179</v>
-      </c>
-      <c r="AT59" t="n">
-        <v>103</v>
-      </c>
-      <c r="AU59" t="n">
-        <v>64</v>
-      </c>
-      <c r="AV59" t="n">
-        <v>59</v>
-      </c>
-      <c r="AW59" t="n">
-        <v>32</v>
-      </c>
-      <c r="AX59" t="n">
-        <v>15</v>
       </c>
     </row>
     <row r="60">
@@ -9654,121 +6432,67 @@
         <v>-9526</v>
       </c>
       <c r="L60" t="n">
-        <v>-450596.032</v>
+        <v>-9850</v>
       </c>
       <c r="M60" t="n">
-        <v>-9850</v>
+        <v>-14060</v>
       </c>
       <c r="N60" t="n">
-        <v>-14060</v>
+        <v>-14618</v>
       </c>
       <c r="O60" t="n">
-        <v>-14618</v>
+        <v>-16626</v>
       </c>
       <c r="P60" t="n">
-        <v>-16626</v>
+        <v>-21485</v>
       </c>
       <c r="Q60" t="n">
-        <v>-21485</v>
+        <v>-12617</v>
       </c>
       <c r="R60" t="n">
-        <v>-12617</v>
+        <v>-19527</v>
       </c>
       <c r="S60" t="n">
-        <v>-19527</v>
+        <v>-28104</v>
       </c>
       <c r="T60" t="n">
-        <v>-28104</v>
+        <v>-33297</v>
       </c>
       <c r="U60" t="n">
-        <v>-33297</v>
+        <v>-7487</v>
       </c>
       <c r="V60" t="n">
-        <v>-7487</v>
+        <v>-20191</v>
       </c>
       <c r="W60" t="n">
-        <v>-20191</v>
+        <v>-28615</v>
       </c>
       <c r="X60" t="n">
-        <v>-28615</v>
+        <v>-28067</v>
       </c>
       <c r="Y60" t="n">
-        <v>-28067</v>
+        <v>-20744</v>
       </c>
       <c r="Z60" t="n">
-        <v>-20744</v>
+        <v>-21511</v>
       </c>
       <c r="AA60" t="n">
-        <v>-21511</v>
+        <v>-29207</v>
       </c>
       <c r="AB60" t="n">
-        <v>-29207</v>
+        <v>-29497</v>
       </c>
       <c r="AC60" t="n">
-        <v>-29497</v>
+        <v>-34607</v>
       </c>
       <c r="AD60" t="n">
-        <v>-34607</v>
+        <v>-33472</v>
       </c>
       <c r="AE60" t="n">
-        <v>-33472</v>
+        <v>-31625</v>
       </c>
       <c r="AF60" t="n">
-        <v>-31625</v>
-      </c>
-      <c r="AG60" t="n">
         <v>-32161</v>
-      </c>
-      <c r="AH60" t="n">
-        <v>-9066</v>
-      </c>
-      <c r="AI60" t="n">
-        <v>-7288</v>
-      </c>
-      <c r="AJ60" t="n">
-        <v>-5578</v>
-      </c>
-      <c r="AK60" t="n">
-        <v>-2940</v>
-      </c>
-      <c r="AL60" t="n">
-        <v>-2142</v>
-      </c>
-      <c r="AM60" t="n">
-        <v>-1943</v>
-      </c>
-      <c r="AN60" t="n">
-        <v>-2098</v>
-      </c>
-      <c r="AO60" t="n">
-        <v>-766</v>
-      </c>
-      <c r="AP60" t="n">
-        <v>-444</v>
-      </c>
-      <c r="AQ60" t="n">
-        <v>-310</v>
-      </c>
-      <c r="AR60" t="n">
-        <v>-166</v>
-      </c>
-      <c r="AS60" t="n">
-        <v>-498</v>
-      </c>
-      <c r="AT60" t="n">
-        <v>-74</v>
-      </c>
-      <c r="AU60" t="n">
-        <v>-50</v>
-      </c>
-      <c r="AV60" t="n">
-        <v>-179</v>
-      </c>
-      <c r="AW60" t="n">
-        <v>-62</v>
-      </c>
-      <c r="AX60" t="n">
-        <v>-85</v>
       </c>
     </row>
     <row r="61">
@@ -9808,121 +6532,67 @@
         <v>8749</v>
       </c>
       <c r="L61" t="n">
-        <v>106211.008</v>
+        <v>12239</v>
       </c>
       <c r="M61" t="n">
-        <v>12239</v>
+        <v>14955</v>
       </c>
       <c r="N61" t="n">
-        <v>14955</v>
+        <v>20722</v>
       </c>
       <c r="O61" t="n">
-        <v>20722</v>
+        <v>21433</v>
       </c>
       <c r="P61" t="n">
-        <v>21433</v>
+        <v>24678</v>
       </c>
       <c r="Q61" t="n">
-        <v>24678</v>
+        <v>24863</v>
       </c>
       <c r="R61" t="n">
-        <v>24863</v>
+        <v>27006</v>
       </c>
       <c r="S61" t="n">
-        <v>27006</v>
+        <v>28651</v>
       </c>
       <c r="T61" t="n">
-        <v>28651</v>
+        <v>27340</v>
       </c>
       <c r="U61" t="n">
-        <v>27340</v>
+        <v>41175</v>
       </c>
       <c r="V61" t="n">
-        <v>41175</v>
+        <v>39301</v>
       </c>
       <c r="W61" t="n">
-        <v>39301</v>
+        <v>39735.008</v>
       </c>
       <c r="X61" t="n">
-        <v>39735.008</v>
+        <v>33336</v>
       </c>
       <c r="Y61" t="n">
-        <v>33336</v>
+        <v>36400</v>
       </c>
       <c r="Z61" t="n">
-        <v>36400</v>
+        <v>40376</v>
       </c>
       <c r="AA61" t="n">
-        <v>40376</v>
+        <v>54230</v>
       </c>
       <c r="AB61" t="n">
-        <v>54230</v>
+        <v>37805</v>
       </c>
       <c r="AC61" t="n">
-        <v>37805</v>
+        <v>60174</v>
       </c>
       <c r="AD61" t="n">
-        <v>60174</v>
+        <v>50542</v>
       </c>
       <c r="AE61" t="n">
-        <v>50542</v>
+        <v>49620</v>
       </c>
       <c r="AF61" t="n">
-        <v>49620</v>
-      </c>
-      <c r="AG61" t="n">
         <v>36318</v>
-      </c>
-      <c r="AH61" t="n">
-        <v>-1502</v>
-      </c>
-      <c r="AI61" t="n">
-        <v>-186</v>
-      </c>
-      <c r="AJ61" t="n">
-        <v>-1781</v>
-      </c>
-      <c r="AK61" t="n">
-        <v>-342</v>
-      </c>
-      <c r="AL61" t="n">
-        <v>39</v>
-      </c>
-      <c r="AM61" t="n">
-        <v>-144</v>
-      </c>
-      <c r="AN61" t="n">
-        <v>-799</v>
-      </c>
-      <c r="AO61" t="n">
-        <v>-87</v>
-      </c>
-      <c r="AP61" t="n">
-        <v>28</v>
-      </c>
-      <c r="AQ61" t="n">
-        <v>70</v>
-      </c>
-      <c r="AR61" t="n">
-        <v>102</v>
-      </c>
-      <c r="AS61" t="n">
-        <v>-319</v>
-      </c>
-      <c r="AT61" t="n">
-        <v>29</v>
-      </c>
-      <c r="AU61" t="n">
-        <v>14</v>
-      </c>
-      <c r="AV61" t="n">
-        <v>-120</v>
-      </c>
-      <c r="AW61" t="n">
-        <v>-30</v>
-      </c>
-      <c r="AX61" t="n">
-        <v>-70</v>
       </c>
     </row>
     <row r="62">
@@ -9962,7 +6632,7 @@
         <v>-1331</v>
       </c>
       <c r="L62" t="n">
-        <v>-39909</v>
+        <v>0</v>
       </c>
       <c r="M62" t="n">
         <v>0</v>
@@ -10004,79 +6674,25 @@
         <v>0</v>
       </c>
       <c r="Z62" t="n">
-        <v>0</v>
+        <v>-3644</v>
       </c>
       <c r="AA62" t="n">
-        <v>-3644</v>
+        <v>3644</v>
       </c>
       <c r="AB62" t="n">
-        <v>3644</v>
+        <v>-3981</v>
       </c>
       <c r="AC62" t="n">
-        <v>-3981</v>
+        <v>0</v>
       </c>
       <c r="AD62" t="n">
         <v>0</v>
       </c>
       <c r="AE62" t="n">
-        <v>0</v>
+        <v>3981</v>
       </c>
       <c r="AF62" t="n">
-        <v>3981</v>
-      </c>
-      <c r="AG62" t="n">
         <v>-4055</v>
-      </c>
-      <c r="AH62" t="n">
-        <v>-966</v>
-      </c>
-      <c r="AI62" t="n">
-        <v>-232</v>
-      </c>
-      <c r="AJ62" t="n">
-        <v>-1180</v>
-      </c>
-      <c r="AK62" t="n">
-        <v>-28</v>
-      </c>
-      <c r="AL62" t="n">
-        <v>8</v>
-      </c>
-      <c r="AM62" t="n">
-        <v>-9</v>
-      </c>
-      <c r="AN62" t="n">
-        <v>29</v>
-      </c>
-      <c r="AO62" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP62" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ62" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR62" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS62" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT62" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU62" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV62" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW62" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX62" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -10116,121 +6732,67 @@
         <v>-14901</v>
       </c>
       <c r="L63" t="n">
-        <v>-40189</v>
+        <v>-20327</v>
       </c>
       <c r="M63" t="n">
-        <v>-20327</v>
+        <v>-20052</v>
       </c>
       <c r="N63" t="n">
-        <v>-20052</v>
+        <v>-22532</v>
       </c>
       <c r="O63" t="n">
-        <v>-22532</v>
+        <v>-15936</v>
       </c>
       <c r="P63" t="n">
-        <v>-15936</v>
+        <v>-21235</v>
       </c>
       <c r="Q63" t="n">
-        <v>-21235</v>
+        <v>-21756</v>
       </c>
       <c r="R63" t="n">
-        <v>-21756</v>
+        <v>-22894</v>
       </c>
       <c r="S63" t="n">
-        <v>-22894</v>
+        <v>-14772</v>
       </c>
       <c r="T63" t="n">
-        <v>-14772</v>
+        <v>-20017</v>
       </c>
       <c r="U63" t="n">
-        <v>-20017</v>
+        <v>-36025</v>
       </c>
       <c r="V63" t="n">
-        <v>-36025</v>
+        <v>-31191</v>
       </c>
       <c r="W63" t="n">
-        <v>-31191</v>
+        <v>-30060</v>
       </c>
       <c r="X63" t="n">
-        <v>-30060</v>
+        <v>-25530</v>
       </c>
       <c r="Y63" t="n">
-        <v>-25530</v>
+        <v>-32023</v>
       </c>
       <c r="Z63" t="n">
-        <v>-32023</v>
+        <v>-28243</v>
       </c>
       <c r="AA63" t="n">
-        <v>-28243</v>
+        <v>-37122</v>
       </c>
       <c r="AB63" t="n">
-        <v>-37122</v>
+        <v>-26604</v>
       </c>
       <c r="AC63" t="n">
-        <v>-26604</v>
+        <v>-35105</v>
       </c>
       <c r="AD63" t="n">
-        <v>-35105</v>
+        <v>-36204</v>
       </c>
       <c r="AE63" t="n">
-        <v>-36204</v>
+        <v>-40263</v>
       </c>
       <c r="AF63" t="n">
-        <v>-40263</v>
-      </c>
-      <c r="AG63" t="n">
         <v>-34936</v>
-      </c>
-      <c r="AH63" t="n">
-        <v>-5567</v>
-      </c>
-      <c r="AI63" t="n">
-        <v>-6157</v>
-      </c>
-      <c r="AJ63" t="n">
-        <v>-7058</v>
-      </c>
-      <c r="AK63" t="n">
-        <v>-4504</v>
-      </c>
-      <c r="AL63" t="n">
-        <v>-4495</v>
-      </c>
-      <c r="AM63" t="n">
-        <v>-4661</v>
-      </c>
-      <c r="AN63" t="n">
-        <v>-6145</v>
-      </c>
-      <c r="AO63" t="n">
-        <v>-3421</v>
-      </c>
-      <c r="AP63" t="n">
-        <v>-3376</v>
-      </c>
-      <c r="AQ63" t="n">
-        <v>-3329</v>
-      </c>
-      <c r="AR63" t="n">
-        <v>-5095</v>
-      </c>
-      <c r="AS63" t="n">
-        <v>-3132</v>
-      </c>
-      <c r="AT63" t="n">
-        <v>-3024</v>
-      </c>
-      <c r="AU63" t="n">
-        <v>-7229</v>
-      </c>
-      <c r="AV63" t="n">
-        <v>-4722</v>
-      </c>
-      <c r="AW63" t="n">
-        <v>-2600</v>
-      </c>
-      <c r="AX63" t="n">
-        <v>-2319</v>
       </c>
     </row>
     <row r="64">
@@ -10332,60 +6894,6 @@
       <c r="AF64" t="n">
         <v>0</v>
       </c>
-      <c r="AG64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX64" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -10433,111 +6941,57 @@
         <v>0</v>
       </c>
       <c r="O65" t="n">
-        <v>0</v>
+        <v>1591</v>
       </c>
       <c r="P65" t="n">
-        <v>1591</v>
+        <v>7034</v>
       </c>
       <c r="Q65" t="n">
-        <v>7034</v>
+        <v>346</v>
       </c>
       <c r="R65" t="n">
-        <v>346</v>
+        <v>3</v>
       </c>
       <c r="S65" t="n">
+        <v>1685</v>
+      </c>
+      <c r="T65" t="n">
+        <v>367</v>
+      </c>
+      <c r="U65" t="n">
+        <v>481</v>
+      </c>
+      <c r="V65" t="n">
+        <v>-49</v>
+      </c>
+      <c r="W65" t="n">
+        <v>-962</v>
+      </c>
+      <c r="X65" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y65" t="n">
         <v>3</v>
       </c>
-      <c r="T65" t="n">
-        <v>1685</v>
-      </c>
-      <c r="U65" t="n">
-        <v>367</v>
-      </c>
-      <c r="V65" t="n">
-        <v>481</v>
-      </c>
-      <c r="W65" t="n">
-        <v>-49</v>
-      </c>
-      <c r="X65" t="n">
-        <v>-962</v>
-      </c>
-      <c r="Y65" t="n">
-        <v>5</v>
-      </c>
       <c r="Z65" t="n">
-        <v>3</v>
+        <v>72</v>
       </c>
       <c r="AA65" t="n">
-        <v>72</v>
+        <v>-80</v>
       </c>
       <c r="AB65" t="n">
-        <v>-80</v>
+        <v>2</v>
       </c>
       <c r="AC65" t="n">
-        <v>2</v>
+        <v>-5</v>
       </c>
       <c r="AD65" t="n">
-        <v>-5</v>
+        <v>-9</v>
       </c>
       <c r="AE65" t="n">
-        <v>-9</v>
+        <v>12</v>
       </c>
       <c r="AF65" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10578,19 +7032,19 @@
         <v>0</v>
       </c>
       <c r="L66" t="n">
-        <v>-10012</v>
+        <v>2872</v>
       </c>
       <c r="M66" t="n">
-        <v>2872</v>
+        <v>0</v>
       </c>
       <c r="N66" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="O66" t="n">
-        <v>-1</v>
+        <v>-2871</v>
       </c>
       <c r="P66" t="n">
-        <v>-2871</v>
+        <v>0</v>
       </c>
       <c r="Q66" t="n">
         <v>0</v>
@@ -10602,13 +7056,13 @@
         <v>0</v>
       </c>
       <c r="T66" t="n">
-        <v>0</v>
+        <v>-47</v>
       </c>
       <c r="U66" t="n">
-        <v>-47</v>
+        <v>47</v>
       </c>
       <c r="V66" t="n">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="W66" t="n">
         <v>0</v>
@@ -10617,82 +7071,28 @@
         <v>0</v>
       </c>
       <c r="Y66" t="n">
-        <v>0</v>
+        <v>-615</v>
       </c>
       <c r="Z66" t="n">
-        <v>-615</v>
+        <v>-46</v>
       </c>
       <c r="AA66" t="n">
-        <v>-46</v>
+        <v>-352</v>
       </c>
       <c r="AB66" t="n">
-        <v>-352</v>
+        <v>0</v>
       </c>
       <c r="AC66" t="n">
-        <v>0</v>
+        <v>-11475</v>
       </c>
       <c r="AD66" t="n">
-        <v>-11475</v>
+        <v>-267</v>
       </c>
       <c r="AE66" t="n">
-        <v>-267</v>
+        <v>-782</v>
       </c>
       <c r="AF66" t="n">
-        <v>-782</v>
-      </c>
-      <c r="AG66" t="n">
         <v>-1378</v>
-      </c>
-      <c r="AH66" t="n">
-        <v>-2818</v>
-      </c>
-      <c r="AI66" t="n">
-        <v>3084</v>
-      </c>
-      <c r="AJ66" t="n">
-        <v>991</v>
-      </c>
-      <c r="AK66" t="n">
-        <v>-13157</v>
-      </c>
-      <c r="AL66" t="n">
-        <v>-646</v>
-      </c>
-      <c r="AM66" t="n">
-        <v>5096</v>
-      </c>
-      <c r="AN66" t="n">
-        <v>-2185</v>
-      </c>
-      <c r="AO66" t="n">
-        <v>-3080</v>
-      </c>
-      <c r="AP66" t="n">
-        <v>-603</v>
-      </c>
-      <c r="AQ66" t="n">
-        <v>-44939</v>
-      </c>
-      <c r="AR66" t="n">
-        <v>-31654</v>
-      </c>
-      <c r="AS66" t="n">
-        <v>261</v>
-      </c>
-      <c r="AT66" t="n">
-        <v>-381</v>
-      </c>
-      <c r="AU66" t="n">
-        <v>-1946</v>
-      </c>
-      <c r="AV66" t="n">
-        <v>-8728</v>
-      </c>
-      <c r="AW66" t="n">
-        <v>-2786</v>
-      </c>
-      <c r="AX66" t="n">
-        <v>-1514</v>
       </c>
     </row>
     <row r="67">
@@ -10732,19 +7132,19 @@
         <v>15573</v>
       </c>
       <c r="L67" t="n">
-        <v>-441</v>
+        <v>543</v>
       </c>
       <c r="M67" t="n">
-        <v>543</v>
+        <v>0</v>
       </c>
       <c r="N67" t="n">
         <v>0</v>
       </c>
       <c r="O67" t="n">
-        <v>0</v>
+        <v>-543</v>
       </c>
       <c r="P67" t="n">
-        <v>-543</v>
+        <v>0</v>
       </c>
       <c r="Q67" t="n">
         <v>0</v>
@@ -10768,85 +7168,31 @@
         <v>0</v>
       </c>
       <c r="X67" t="n">
-        <v>0</v>
+        <v>-459</v>
       </c>
       <c r="Y67" t="n">
-        <v>-459</v>
+        <v>-129</v>
       </c>
       <c r="Z67" t="n">
-        <v>-129</v>
+        <v>-254</v>
       </c>
       <c r="AA67" t="n">
-        <v>-254</v>
+        <v>-634</v>
       </c>
       <c r="AB67" t="n">
-        <v>-634</v>
+        <v>-57</v>
       </c>
       <c r="AC67" t="n">
-        <v>-57</v>
+        <v>-597</v>
       </c>
       <c r="AD67" t="n">
-        <v>-597</v>
+        <v>-283</v>
       </c>
       <c r="AE67" t="n">
-        <v>-283</v>
+        <v>-184</v>
       </c>
       <c r="AF67" t="n">
-        <v>-184</v>
-      </c>
-      <c r="AG67" t="n">
         <v>-216</v>
-      </c>
-      <c r="AH67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX67" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -10886,121 +7232,67 @@
         <v>4429</v>
       </c>
       <c r="L68" t="n">
-        <v>5569</v>
+        <v>2877</v>
       </c>
       <c r="M68" t="n">
-        <v>2877</v>
+        <v>883</v>
       </c>
       <c r="N68" t="n">
-        <v>883</v>
+        <v>1032</v>
       </c>
       <c r="O68" t="n">
-        <v>1032</v>
+        <v>351</v>
       </c>
       <c r="P68" t="n">
-        <v>351</v>
+        <v>-641</v>
       </c>
       <c r="Q68" t="n">
-        <v>-641</v>
+        <v>-812</v>
       </c>
       <c r="R68" t="n">
-        <v>-812</v>
+        <v>-3849</v>
       </c>
       <c r="S68" t="n">
-        <v>-3849</v>
+        <v>-6444</v>
       </c>
       <c r="T68" t="n">
-        <v>-6444</v>
+        <v>-7932</v>
       </c>
       <c r="U68" t="n">
-        <v>-7932</v>
+        <v>-8790</v>
       </c>
       <c r="V68" t="n">
-        <v>-8790</v>
+        <v>-6828</v>
       </c>
       <c r="W68" t="n">
-        <v>-6828</v>
+        <v>-4065</v>
       </c>
       <c r="X68" t="n">
-        <v>-4065</v>
+        <v>-7840</v>
       </c>
       <c r="Y68" t="n">
-        <v>-7840</v>
+        <v>-5374</v>
       </c>
       <c r="Z68" t="n">
-        <v>-5374</v>
+        <v>-961</v>
       </c>
       <c r="AA68" t="n">
-        <v>-961</v>
+        <v>-8289</v>
       </c>
       <c r="AB68" t="n">
-        <v>-8289</v>
+        <v>-5826</v>
       </c>
       <c r="AC68" t="n">
-        <v>-5826</v>
+        <v>-9060</v>
       </c>
       <c r="AD68" t="n">
-        <v>-9060</v>
+        <v>-5035</v>
       </c>
       <c r="AE68" t="n">
-        <v>-5035</v>
+        <v>-2324</v>
       </c>
       <c r="AF68" t="n">
-        <v>-2324</v>
-      </c>
-      <c r="AG68" t="n">
         <v>-4433</v>
-      </c>
-      <c r="AH68" t="n">
-        <v>838</v>
-      </c>
-      <c r="AI68" t="n">
-        <v>575</v>
-      </c>
-      <c r="AJ68" t="n">
-        <v>19124</v>
-      </c>
-      <c r="AK68" t="n">
-        <v>5976</v>
-      </c>
-      <c r="AL68" t="n">
-        <v>3150</v>
-      </c>
-      <c r="AM68" t="n">
-        <v>2606</v>
-      </c>
-      <c r="AN68" t="n">
-        <v>5855</v>
-      </c>
-      <c r="AO68" t="n">
-        <v>3452</v>
-      </c>
-      <c r="AP68" t="n">
-        <v>1812</v>
-      </c>
-      <c r="AQ68" t="n">
-        <v>4933</v>
-      </c>
-      <c r="AR68" t="n">
-        <v>6116</v>
-      </c>
-      <c r="AS68" t="n">
-        <v>1874</v>
-      </c>
-      <c r="AT68" t="n">
-        <v>3862</v>
-      </c>
-      <c r="AU68" t="n">
-        <v>6734</v>
-      </c>
-      <c r="AV68" t="n">
-        <v>6770</v>
-      </c>
-      <c r="AW68" t="n">
-        <v>1120</v>
-      </c>
-      <c r="AX68" t="n">
-        <v>1773</v>
       </c>
     </row>
     <row r="69">
@@ -11040,121 +7332,67 @@
         <v>6661</v>
       </c>
       <c r="L69" t="n">
-        <v>13794</v>
+        <v>5311</v>
       </c>
       <c r="M69" t="n">
-        <v>5311</v>
+        <v>4322</v>
       </c>
       <c r="N69" t="n">
-        <v>4322</v>
+        <v>4167</v>
       </c>
       <c r="O69" t="n">
-        <v>4167</v>
+        <v>3854</v>
       </c>
       <c r="P69" t="n">
-        <v>3854</v>
+        <v>3782</v>
       </c>
       <c r="Q69" t="n">
-        <v>3782</v>
+        <v>6183</v>
       </c>
       <c r="R69" t="n">
-        <v>6183</v>
+        <v>6328</v>
       </c>
       <c r="S69" t="n">
-        <v>6328</v>
+        <v>3132</v>
       </c>
       <c r="T69" t="n">
-        <v>3132</v>
+        <v>2125</v>
       </c>
       <c r="U69" t="n">
-        <v>2125</v>
+        <v>573</v>
       </c>
       <c r="V69" t="n">
-        <v>573</v>
+        <v>1900</v>
       </c>
       <c r="W69" t="n">
-        <v>1900</v>
+        <v>1613</v>
       </c>
       <c r="X69" t="n">
-        <v>1613</v>
+        <v>1088</v>
       </c>
       <c r="Y69" t="n">
-        <v>1088</v>
+        <v>4880</v>
       </c>
       <c r="Z69" t="n">
-        <v>4880</v>
+        <v>8449</v>
       </c>
       <c r="AA69" t="n">
-        <v>8449</v>
+        <v>7001</v>
       </c>
       <c r="AB69" t="n">
-        <v>7001</v>
+        <v>4164</v>
       </c>
       <c r="AC69" t="n">
-        <v>4164</v>
+        <v>3510</v>
       </c>
       <c r="AD69" t="n">
-        <v>3510</v>
+        <v>6660</v>
       </c>
       <c r="AE69" t="n">
-        <v>6660</v>
+        <v>5823</v>
       </c>
       <c r="AF69" t="n">
-        <v>5823</v>
-      </c>
-      <c r="AG69" t="n">
         <v>8377</v>
-      </c>
-      <c r="AH69" t="n">
-        <v>3379</v>
-      </c>
-      <c r="AI69" t="n">
-        <v>3455</v>
-      </c>
-      <c r="AJ69" t="n">
-        <v>31085</v>
-      </c>
-      <c r="AK69" t="n">
-        <v>7883</v>
-      </c>
-      <c r="AL69" t="n">
-        <v>4406</v>
-      </c>
-      <c r="AM69" t="n">
-        <v>3911</v>
-      </c>
-      <c r="AN69" t="n">
-        <v>7183</v>
-      </c>
-      <c r="AO69" t="n">
-        <v>4646</v>
-      </c>
-      <c r="AP69" t="n">
-        <v>2554</v>
-      </c>
-      <c r="AQ69" t="n">
-        <v>5562</v>
-      </c>
-      <c r="AR69" t="n">
-        <v>7260</v>
-      </c>
-      <c r="AS69" t="n">
-        <v>2422</v>
-      </c>
-      <c r="AT69" t="n">
-        <v>6853</v>
-      </c>
-      <c r="AU69" t="n">
-        <v>7557</v>
-      </c>
-      <c r="AV69" t="n">
-        <v>7468</v>
-      </c>
-      <c r="AW69" t="n">
-        <v>1444</v>
-      </c>
-      <c r="AX69" t="n">
-        <v>2149</v>
       </c>
     </row>
     <row r="70">
@@ -11194,121 +7432,67 @@
         <v>-2232</v>
       </c>
       <c r="L70" t="n">
-        <v>-8225</v>
+        <v>-2434</v>
       </c>
       <c r="M70" t="n">
-        <v>-2434</v>
+        <v>-3439</v>
       </c>
       <c r="N70" t="n">
-        <v>-3439</v>
+        <v>-3135</v>
       </c>
       <c r="O70" t="n">
-        <v>-3135</v>
+        <v>-3503</v>
       </c>
       <c r="P70" t="n">
-        <v>-3503</v>
+        <v>-4423</v>
       </c>
       <c r="Q70" t="n">
-        <v>-4423</v>
+        <v>-6995</v>
       </c>
       <c r="R70" t="n">
-        <v>-6995</v>
+        <v>-10177</v>
       </c>
       <c r="S70" t="n">
-        <v>-10177</v>
+        <v>-9576</v>
       </c>
       <c r="T70" t="n">
-        <v>-9576</v>
+        <v>-10057</v>
       </c>
       <c r="U70" t="n">
-        <v>-10057</v>
+        <v>-9363</v>
       </c>
       <c r="V70" t="n">
-        <v>-9363</v>
+        <v>-8728</v>
       </c>
       <c r="W70" t="n">
-        <v>-8728</v>
+        <v>-5678</v>
       </c>
       <c r="X70" t="n">
-        <v>-5678</v>
+        <v>-8928</v>
       </c>
       <c r="Y70" t="n">
-        <v>-8928</v>
+        <v>-10254</v>
       </c>
       <c r="Z70" t="n">
-        <v>-10254</v>
+        <v>-9410</v>
       </c>
       <c r="AA70" t="n">
-        <v>-9410</v>
+        <v>-15290</v>
       </c>
       <c r="AB70" t="n">
-        <v>-15290</v>
+        <v>-9990</v>
       </c>
       <c r="AC70" t="n">
-        <v>-9990</v>
+        <v>-12570</v>
       </c>
       <c r="AD70" t="n">
-        <v>-12570</v>
+        <v>-11695</v>
       </c>
       <c r="AE70" t="n">
-        <v>-11695</v>
+        <v>-8147</v>
       </c>
       <c r="AF70" t="n">
-        <v>-8147</v>
-      </c>
-      <c r="AG70" t="n">
         <v>-12810</v>
-      </c>
-      <c r="AH70" t="n">
-        <v>-2541</v>
-      </c>
-      <c r="AI70" t="n">
-        <v>-2880</v>
-      </c>
-      <c r="AJ70" t="n">
-        <v>-11961</v>
-      </c>
-      <c r="AK70" t="n">
-        <v>-1907</v>
-      </c>
-      <c r="AL70" t="n">
-        <v>-1256</v>
-      </c>
-      <c r="AM70" t="n">
-        <v>-1305</v>
-      </c>
-      <c r="AN70" t="n">
-        <v>-1328</v>
-      </c>
-      <c r="AO70" t="n">
-        <v>-1194</v>
-      </c>
-      <c r="AP70" t="n">
-        <v>-742</v>
-      </c>
-      <c r="AQ70" t="n">
-        <v>-629</v>
-      </c>
-      <c r="AR70" t="n">
-        <v>-1144</v>
-      </c>
-      <c r="AS70" t="n">
-        <v>-548</v>
-      </c>
-      <c r="AT70" t="n">
-        <v>-2991</v>
-      </c>
-      <c r="AU70" t="n">
-        <v>-823</v>
-      </c>
-      <c r="AV70" t="n">
-        <v>-698</v>
-      </c>
-      <c r="AW70" t="n">
-        <v>-324</v>
-      </c>
-      <c r="AX70" t="n">
-        <v>-376</v>
       </c>
     </row>
     <row r="71">
@@ -11348,10 +7532,10 @@
         <v>318</v>
       </c>
       <c r="L71" t="n">
-        <v>0</v>
+        <v>-22</v>
       </c>
       <c r="M71" t="n">
-        <v>-22</v>
+        <v>0</v>
       </c>
       <c r="N71" t="n">
         <v>0</v>
@@ -11408,60 +7592,6 @@
         <v>0</v>
       </c>
       <c r="AF71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11564,60 +7694,6 @@
       <c r="AF72" t="n">
         <v>0</v>
       </c>
-      <c r="AG72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX72" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -11656,10 +7732,10 @@
         <v>-1262</v>
       </c>
       <c r="L73" t="n">
-        <v>0</v>
+        <v>-22</v>
       </c>
       <c r="M73" t="n">
-        <v>-22</v>
+        <v>0</v>
       </c>
       <c r="N73" t="n">
         <v>0</v>
@@ -11716,60 +7792,6 @@
         <v>0</v>
       </c>
       <c r="AF73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11810,121 +7832,67 @@
         <v>16063</v>
       </c>
       <c r="L74" t="n">
-        <v>21229</v>
+        <v>-1818</v>
       </c>
       <c r="M74" t="n">
-        <v>-1818</v>
+        <v>-4214</v>
       </c>
       <c r="N74" t="n">
-        <v>-4214</v>
+        <v>-779</v>
       </c>
       <c r="O74" t="n">
-        <v>-779</v>
+        <v>4047</v>
       </c>
       <c r="P74" t="n">
-        <v>4047</v>
+        <v>9836</v>
       </c>
       <c r="Q74" t="n">
-        <v>9836</v>
+        <v>2641</v>
       </c>
       <c r="R74" t="n">
-        <v>2641</v>
+        <v>266</v>
       </c>
       <c r="S74" t="n">
-        <v>266</v>
+        <v>9120</v>
       </c>
       <c r="T74" t="n">
-        <v>9120</v>
+        <v>-289</v>
       </c>
       <c r="U74" t="n">
-        <v>-289</v>
+        <v>-3112</v>
       </c>
       <c r="V74" t="n">
-        <v>-3112</v>
+        <v>1233</v>
       </c>
       <c r="W74" t="n">
-        <v>1233</v>
+        <v>4648</v>
       </c>
       <c r="X74" t="n">
-        <v>4648</v>
+        <v>-488</v>
       </c>
       <c r="Y74" t="n">
-        <v>-488</v>
+        <v>-1738</v>
       </c>
       <c r="Z74" t="n">
-        <v>-1738</v>
+        <v>7300</v>
       </c>
       <c r="AA74" t="n">
-        <v>7300</v>
+        <v>11397</v>
       </c>
       <c r="AB74" t="n">
-        <v>11397</v>
+        <v>1339</v>
       </c>
       <c r="AC74" t="n">
-        <v>1339</v>
+        <v>3932</v>
       </c>
       <c r="AD74" t="n">
-        <v>3932</v>
+        <v>8744</v>
       </c>
       <c r="AE74" t="n">
-        <v>8744</v>
+        <v>10060</v>
       </c>
       <c r="AF74" t="n">
-        <v>10060</v>
-      </c>
-      <c r="AG74" t="n">
         <v>-8700</v>
-      </c>
-      <c r="AH74" t="n">
-        <v>-10015</v>
-      </c>
-      <c r="AI74" t="n">
-        <v>-2916</v>
-      </c>
-      <c r="AJ74" t="n">
-        <v>10096</v>
-      </c>
-      <c r="AK74" t="n">
-        <v>-12055</v>
-      </c>
-      <c r="AL74" t="n">
-        <v>-1944</v>
-      </c>
-      <c r="AM74" t="n">
-        <v>2888</v>
-      </c>
-      <c r="AN74" t="n">
-        <v>-3245</v>
-      </c>
-      <c r="AO74" t="n">
-        <v>-3136</v>
-      </c>
-      <c r="AP74" t="n">
-        <v>-2139</v>
-      </c>
-      <c r="AQ74" t="n">
-        <v>-43265</v>
-      </c>
-      <c r="AR74" t="n">
-        <v>-30531</v>
-      </c>
-      <c r="AS74" t="n">
-        <v>-1316</v>
-      </c>
-      <c r="AT74" t="n">
-        <v>486</v>
-      </c>
-      <c r="AU74" t="n">
-        <v>-2427</v>
-      </c>
-      <c r="AV74" t="n">
-        <v>-6800</v>
-      </c>
-      <c r="AW74" t="n">
-        <v>-4296</v>
-      </c>
-      <c r="AX74" t="n">
-        <v>-2130</v>
       </c>
     </row>
     <row r="75">
@@ -11964,121 +7932,67 @@
         <v>-1786</v>
       </c>
       <c r="L75" t="n">
-        <v>12299</v>
+        <v>-607</v>
       </c>
       <c r="M75" t="n">
-        <v>-607</v>
+        <v>-174</v>
       </c>
       <c r="N75" t="n">
-        <v>-174</v>
+        <v>-1638</v>
       </c>
       <c r="O75" t="n">
-        <v>-1638</v>
+        <v>2419</v>
       </c>
       <c r="P75" t="n">
-        <v>2419</v>
+        <v>0</v>
       </c>
       <c r="Q75" t="n">
-        <v>0</v>
+        <v>-2377</v>
       </c>
       <c r="R75" t="n">
-        <v>-2377</v>
+        <v>-1757</v>
       </c>
       <c r="S75" t="n">
-        <v>-1757</v>
+        <v>-7026</v>
       </c>
       <c r="T75" t="n">
-        <v>-7026</v>
+        <v>0</v>
       </c>
       <c r="U75" t="n">
-        <v>0</v>
+        <v>-1863</v>
       </c>
       <c r="V75" t="n">
-        <v>-1863</v>
+        <v>-2610</v>
       </c>
       <c r="W75" t="n">
-        <v>-2610</v>
+        <v>-6796</v>
       </c>
       <c r="X75" t="n">
-        <v>-6796</v>
+        <v>0</v>
       </c>
       <c r="Y75" t="n">
-        <v>0</v>
+        <v>-1983</v>
       </c>
       <c r="Z75" t="n">
-        <v>-1983</v>
+        <v>-3986</v>
       </c>
       <c r="AA75" t="n">
-        <v>-3986</v>
+        <v>-7428</v>
       </c>
       <c r="AB75" t="n">
-        <v>-7428</v>
+        <v>-3958</v>
       </c>
       <c r="AC75" t="n">
-        <v>-3958</v>
+        <v>-8510</v>
       </c>
       <c r="AD75" t="n">
-        <v>-8510</v>
+        <v>-2420</v>
       </c>
       <c r="AE75" t="n">
-        <v>-2420</v>
+        <v>-5237</v>
       </c>
       <c r="AF75" t="n">
-        <v>-5237</v>
-      </c>
-      <c r="AG75" t="n">
         <v>-2187</v>
-      </c>
-      <c r="AH75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO75" t="n">
-        <v>-1590</v>
-      </c>
-      <c r="AP75" t="n">
-        <v>347</v>
-      </c>
-      <c r="AQ75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR75" t="n">
-        <v>1243</v>
-      </c>
-      <c r="AS75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT75" t="n">
-        <v>-37</v>
-      </c>
-      <c r="AU75" t="n">
-        <v>-121</v>
-      </c>
-      <c r="AV75" t="n">
-        <v>158</v>
-      </c>
-      <c r="AW75" t="n">
-        <v>-34</v>
-      </c>
-      <c r="AX75" t="n">
-        <v>-40</v>
       </c>
     </row>
     <row r="76">
@@ -12118,7 +8032,7 @@
         <v>0</v>
       </c>
       <c r="L76" t="n">
-        <v>-8129</v>
+        <v>0</v>
       </c>
       <c r="M76" t="n">
         <v>0</v>
@@ -12136,25 +8050,25 @@
         <v>0</v>
       </c>
       <c r="R76" t="n">
-        <v>0</v>
+        <v>-186</v>
       </c>
       <c r="S76" t="n">
-        <v>-186</v>
+        <v>-873</v>
       </c>
       <c r="T76" t="n">
-        <v>-873</v>
+        <v>0</v>
       </c>
       <c r="U76" t="n">
         <v>0</v>
       </c>
       <c r="V76" t="n">
-        <v>0</v>
+        <v>325</v>
       </c>
       <c r="W76" t="n">
-        <v>325</v>
+        <v>987</v>
       </c>
       <c r="X76" t="n">
-        <v>987</v>
+        <v>0</v>
       </c>
       <c r="Y76" t="n">
         <v>0</v>
@@ -12163,10 +8077,10 @@
         <v>0</v>
       </c>
       <c r="AA76" t="n">
-        <v>0</v>
+        <v>-1241</v>
       </c>
       <c r="AB76" t="n">
-        <v>-1241</v>
+        <v>0</v>
       </c>
       <c r="AC76" t="n">
         <v>0</v>
@@ -12178,60 +8092,6 @@
         <v>0</v>
       </c>
       <c r="AF76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12272,7 +8132,7 @@
         <v>0</v>
       </c>
       <c r="L77" t="n">
-        <v>-4490</v>
+        <v>0</v>
       </c>
       <c r="M77" t="n">
         <v>0</v>
@@ -12332,60 +8192,6 @@
         <v>0</v>
       </c>
       <c r="AF77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX77" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12488,60 +8294,6 @@
       <c r="AF78" t="n">
         <v>0</v>
       </c>
-      <c r="AG78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX78" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -12580,121 +8332,67 @@
         <v>-79</v>
       </c>
       <c r="L79" t="n">
-        <v>-30</v>
+        <v>322</v>
       </c>
       <c r="M79" t="n">
-        <v>322</v>
+        <v>539</v>
       </c>
       <c r="N79" t="n">
-        <v>539</v>
+        <v>709</v>
       </c>
       <c r="O79" t="n">
-        <v>709</v>
+        <v>1395</v>
       </c>
       <c r="P79" t="n">
-        <v>1395</v>
+        <v>-243</v>
       </c>
       <c r="Q79" t="n">
-        <v>-243</v>
+        <v>-455</v>
       </c>
       <c r="R79" t="n">
-        <v>-455</v>
+        <v>-698</v>
       </c>
       <c r="S79" t="n">
-        <v>-698</v>
+        <v>-291</v>
       </c>
       <c r="T79" t="n">
-        <v>-291</v>
+        <v>-367</v>
       </c>
       <c r="U79" t="n">
-        <v>-367</v>
+        <v>-343</v>
       </c>
       <c r="V79" t="n">
-        <v>-343</v>
+        <v>-101</v>
       </c>
       <c r="W79" t="n">
-        <v>-101</v>
+        <v>1961</v>
       </c>
       <c r="X79" t="n">
-        <v>1961</v>
+        <v>174</v>
       </c>
       <c r="Y79" t="n">
-        <v>174</v>
+        <v>-3</v>
       </c>
       <c r="Z79" t="n">
-        <v>-3</v>
+        <v>-72</v>
       </c>
       <c r="AA79" t="n">
-        <v>-72</v>
+        <v>81</v>
       </c>
       <c r="AB79" t="n">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="AC79" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AD79" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AE79" t="n">
-        <v>9</v>
+        <v>-29</v>
       </c>
       <c r="AF79" t="n">
-        <v>-29</v>
-      </c>
-      <c r="AG79" t="n">
         <v>-28</v>
-      </c>
-      <c r="AH79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX79" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -12734,121 +8432,67 @@
         <v>14198</v>
       </c>
       <c r="L80" t="n">
-        <v>20879</v>
+        <v>-2103</v>
       </c>
       <c r="M80" t="n">
-        <v>-2103</v>
+        <v>-3849</v>
       </c>
       <c r="N80" t="n">
-        <v>-3849</v>
+        <v>-1708</v>
       </c>
       <c r="O80" t="n">
-        <v>-1708</v>
+        <v>4453</v>
       </c>
       <c r="P80" t="n">
-        <v>4453</v>
+        <v>5779</v>
       </c>
       <c r="Q80" t="n">
-        <v>5779</v>
+        <v>-191</v>
       </c>
       <c r="R80" t="n">
-        <v>-191</v>
+        <v>-2375</v>
       </c>
       <c r="S80" t="n">
-        <v>-2375</v>
+        <v>4744</v>
       </c>
       <c r="T80" t="n">
-        <v>4744</v>
+        <v>-2916</v>
       </c>
       <c r="U80" t="n">
-        <v>-2916</v>
+        <v>-5318</v>
       </c>
       <c r="V80" t="n">
-        <v>-5318</v>
+        <v>-1052</v>
       </c>
       <c r="W80" t="n">
-        <v>-1052</v>
+        <v>2959</v>
       </c>
       <c r="X80" t="n">
-        <v>2959</v>
+        <v>-3919</v>
       </c>
       <c r="Y80" t="n">
-        <v>-3919</v>
+        <v>-3724</v>
       </c>
       <c r="Z80" t="n">
-        <v>-3724</v>
+        <v>3242</v>
       </c>
       <c r="AA80" t="n">
-        <v>3242</v>
+        <v>6414</v>
       </c>
       <c r="AB80" t="n">
-        <v>6414</v>
+        <v>-2619</v>
       </c>
       <c r="AC80" t="n">
-        <v>-2619</v>
+        <v>-4573</v>
       </c>
       <c r="AD80" t="n">
-        <v>-4573</v>
+        <v>6333</v>
       </c>
       <c r="AE80" t="n">
-        <v>6333</v>
+        <v>4794</v>
       </c>
       <c r="AF80" t="n">
-        <v>4794</v>
-      </c>
-      <c r="AG80" t="n">
         <v>-10915</v>
-      </c>
-      <c r="AH80" t="n">
-        <v>-9707</v>
-      </c>
-      <c r="AI80" t="n">
-        <v>-3149</v>
-      </c>
-      <c r="AJ80" t="n">
-        <v>4968</v>
-      </c>
-      <c r="AK80" t="n">
-        <v>-12143</v>
-      </c>
-      <c r="AL80" t="n">
-        <v>-2053</v>
-      </c>
-      <c r="AM80" t="n">
-        <v>2757</v>
-      </c>
-      <c r="AN80" t="n">
-        <v>-3336</v>
-      </c>
-      <c r="AO80" t="n">
-        <v>-4726</v>
-      </c>
-      <c r="AP80" t="n">
-        <v>-1792</v>
-      </c>
-      <c r="AQ80" t="n">
-        <v>-10679</v>
-      </c>
-      <c r="AR80" t="n">
-        <v>-5434</v>
-      </c>
-      <c r="AS80" t="n">
-        <v>-1384</v>
-      </c>
-      <c r="AT80" t="n">
-        <v>449</v>
-      </c>
-      <c r="AU80" t="n">
-        <v>-2548</v>
-      </c>
-      <c r="AV80" t="n">
-        <v>-3593</v>
-      </c>
-      <c r="AW80" t="n">
-        <v>-4330</v>
-      </c>
-      <c r="AX80" t="n">
-        <v>-2170</v>
       </c>
     </row>
   </sheetData>
